--- a/01_Input/00_CO Validation/Mali - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Mali - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam.coulibaly\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="336" documentId="13_ncr:1_{A2F0156B-761F-4243-96E8-3CD598E6E0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C65EA96-E38E-4F9E-B46D-DFC79094C51A}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="13_ncr:1_{A2F0156B-761F-4243-96E8-3CD598E6E0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73E20055-7597-428D-BE64-93858EDFA2B8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="206">
   <si>
     <t>Project ID</t>
   </si>
@@ -169,9 +172,6 @@
     <t>Energy Efficiency</t>
   </si>
   <si>
-    <t>PBF</t>
-  </si>
-  <si>
     <t>Capacity Training</t>
   </si>
   <si>
@@ -226,7 +226,7 @@
     <t>Africa Migrid Program</t>
   </si>
   <si>
-    <t>Electriciy Access</t>
+    <t>GHG Emissions Reduction</t>
   </si>
   <si>
     <t>Indicator 1: Greenhouse gas emissions mitigated  Units of measure: metric tons of carbon dioxide equivalent (tCO2e)</t>
@@ -246,6 +246,9 @@
   <si>
     <t>Indicator 2: Number of direct beneficiaries benefitting from energy access via minigrids, disaggregated by gender and by customer segment (residential, social, commercial/productive use) as co-benefit of GEF investment
 Units of measure: number of people</t>
+  </si>
+  <si>
+    <t>Energy (MW added)</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -307,6 +310,9 @@
   </si>
   <si>
     <t>Joint project PNUD/ONUFEMMES/Cercles de Mopti et Koro</t>
+  </si>
+  <si>
+    <t>PBF</t>
   </si>
   <si>
     <t>Capacity training</t>
@@ -1000,7 +1006,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1285,6 +1291,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1613,7 +1637,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1881,24 +1905,22 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="45.75">
-      <c r="A7" s="76" t="s">
-        <v>42</v>
-      </c>
+      <c r="A7" s="76"/>
       <c r="B7" s="59"/>
       <c r="C7" s="73"/>
       <c r="D7" s="77"/>
       <c r="E7" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="60" t="s">
         <v>43</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>44</v>
       </c>
       <c r="G7" s="74"/>
       <c r="H7" s="60">
         <v>1000</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="70"/>
       <c r="K7" s="79">
@@ -1924,17 +1946,17 @@
       <c r="C8" s="82"/>
       <c r="D8" s="83"/>
       <c r="E8" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="61" t="s">
         <v>46</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>47</v>
       </c>
       <c r="G8" s="74"/>
       <c r="H8" s="60">
         <v>1000</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="70"/>
       <c r="K8" s="79">
@@ -1956,20 +1978,20 @@
     </row>
     <row r="9" spans="1:19" ht="60.75">
       <c r="A9" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="58" t="s">
         <v>49</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>50</v>
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="59">
         <v>6000000</v>
       </c>
       <c r="E9" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="58" t="s">
         <v>51</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>52</v>
       </c>
       <c r="G9" s="87">
         <v>0</v>
@@ -1978,7 +2000,7 @@
         <v>23460</v>
       </c>
       <c r="I9" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9" s="62"/>
       <c r="K9" s="59"/>
@@ -1986,13 +2008,13 @@
         <v>23</v>
       </c>
       <c r="M9" s="59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N9" s="59" t="s">
         <v>24</v>
       </c>
       <c r="O9" s="59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="59"/>
       <c r="Q9" s="59"/>
@@ -2004,10 +2026,10 @@
       <c r="C10" s="59"/>
       <c r="D10" s="85"/>
       <c r="E10" s="59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="86"/>
       <c r="H10" s="91">
@@ -2022,7 +2044,7 @@
         <v>23</v>
       </c>
       <c r="M10" s="59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N10" s="59" t="s">
         <v>24</v>
@@ -2040,7 +2062,7 @@
       <c r="C11" s="59"/>
       <c r="D11" s="85"/>
       <c r="E11" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="92" t="s">
         <v>21</v>
@@ -2070,32 +2092,32 @@
     </row>
     <row r="12" spans="1:19" ht="137.25">
       <c r="A12" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="59" t="s">
         <v>58</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>59</v>
       </c>
       <c r="C12" s="59"/>
       <c r="D12" s="85">
         <v>1780000</v>
       </c>
       <c r="E12" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="93" t="s">
         <v>60</v>
-      </c>
-      <c r="F12" s="93" t="s">
-        <v>61</v>
       </c>
       <c r="G12" s="86"/>
       <c r="H12" s="94">
         <v>16929</v>
       </c>
       <c r="I12" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J12" s="62"/>
       <c r="K12" s="59"/>
       <c r="L12" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M12" s="59"/>
       <c r="N12" s="59" t="s">
@@ -2105,23 +2127,23 @@
         <v>33</v>
       </c>
       <c r="P12" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="59"/>
       <c r="R12" s="59"/>
     </row>
     <row r="13" spans="1:19" ht="106.5">
       <c r="A13" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
       <c r="D13" s="85"/>
       <c r="E13" s="59" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="86"/>
       <c r="H13" s="89">
@@ -2133,7 +2155,7 @@
         <v>0.51</v>
       </c>
       <c r="L13" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M13" s="59"/>
       <c r="N13" s="59" t="s">
@@ -2143,7 +2165,7 @@
         <v>33</v>
       </c>
       <c r="P13" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="59"/>
       <c r="R13" s="59"/>
@@ -2153,8 +2175,8 @@
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
       <c r="D14" s="85"/>
-      <c r="E14" s="59" t="s">
-        <v>60</v>
+      <c r="E14" s="81" t="s">
+        <v>66</v>
       </c>
       <c r="F14" s="95" t="s">
         <v>67</v>
@@ -2167,7 +2189,7 @@
       <c r="J14" s="62"/>
       <c r="K14" s="59"/>
       <c r="L14" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M14" s="59"/>
       <c r="N14" s="59" t="s">
@@ -2177,7 +2199,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="59"/>
       <c r="R14" s="59"/>
@@ -2187,17 +2209,17 @@
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
       <c r="D15" s="85"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="95" t="s">
+      <c r="E15" s="101"/>
+      <c r="F15" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="87"/>
-      <c r="H15" s="88"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="104"/>
       <c r="I15" s="58"/>
       <c r="J15" s="62"/>
       <c r="K15" s="59"/>
       <c r="L15" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M15" s="59"/>
       <c r="N15" s="59" t="s">
@@ -2207,7 +2229,7 @@
         <v>33</v>
       </c>
       <c r="P15" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q15" s="59"/>
       <c r="R15" s="59"/>
@@ -2217,17 +2239,17 @@
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
       <c r="D16" s="85"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="96" t="s">
+      <c r="E16" s="101"/>
+      <c r="F16" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="86"/>
-      <c r="H16" s="88"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="104"/>
       <c r="I16" s="58"/>
       <c r="J16" s="62"/>
       <c r="K16" s="59"/>
       <c r="L16" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M16" s="59"/>
       <c r="N16" s="59" t="s">
@@ -2237,7 +2259,7 @@
         <v>33</v>
       </c>
       <c r="P16" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="59"/>
       <c r="R16" s="59"/>
@@ -2252,7 +2274,7 @@
         <v>1346173</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="97" t="s">
         <v>21</v>
@@ -2265,7 +2287,7 @@
       <c r="J17" s="62"/>
       <c r="K17" s="59"/>
       <c r="L17" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M17" s="59"/>
       <c r="N17" s="59" t="s">
@@ -2275,7 +2297,7 @@
         <v>41</v>
       </c>
       <c r="P17" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="59"/>
       <c r="R17" s="59"/>
@@ -2307,7 +2329,7 @@
       <c r="J18" s="62"/>
       <c r="K18" s="59"/>
       <c r="L18" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M18" s="59"/>
       <c r="N18" s="59" t="s">
@@ -2317,7 +2339,7 @@
         <v>41</v>
       </c>
       <c r="P18" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q18" s="59"/>
       <c r="R18" s="59"/>
@@ -2345,7 +2367,7 @@
       <c r="J19" s="62"/>
       <c r="K19" s="59"/>
       <c r="L19" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M19" s="59"/>
       <c r="N19" s="59" t="s">
@@ -2355,7 +2377,7 @@
         <v>41</v>
       </c>
       <c r="P19" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="59"/>
       <c r="R19" s="59"/>
@@ -2375,7 +2397,7 @@
       <c r="J20" s="62"/>
       <c r="K20" s="59"/>
       <c r="L20" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M20" s="59"/>
       <c r="N20" s="59" t="s">
@@ -2385,7 +2407,7 @@
         <v>41</v>
       </c>
       <c r="P20" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q20" s="59"/>
       <c r="R20" s="59"/>
@@ -2405,7 +2427,7 @@
       <c r="J21" s="70"/>
       <c r="K21" s="59"/>
       <c r="L21" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M21" s="59"/>
       <c r="N21" s="59" t="s">
@@ -2415,7 +2437,7 @@
         <v>41</v>
       </c>
       <c r="P21" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="59"/>
       <c r="R21" s="59"/>
@@ -2435,7 +2457,7 @@
       <c r="J22" s="70"/>
       <c r="K22" s="59"/>
       <c r="L22" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M22" s="59"/>
       <c r="N22" s="59" t="s">
@@ -2445,7 +2467,7 @@
         <v>41</v>
       </c>
       <c r="P22" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="59"/>
       <c r="R22" s="59"/>
@@ -2772,7 +2794,7 @@
     </row>
     <row r="7" spans="1:19" ht="45.75">
       <c r="A7" s="76" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="73"/>
@@ -2818,17 +2840,17 @@
       <c r="C8" s="73"/>
       <c r="D8" s="77"/>
       <c r="E8" s="80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="74"/>
       <c r="H8" s="60">
         <v>1000</v>
       </c>
       <c r="I8" s="58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" s="70"/>
       <c r="K8" s="79">
@@ -2854,17 +2876,17 @@
       <c r="C9" s="82"/>
       <c r="D9" s="83"/>
       <c r="E9" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="61" t="s">
         <v>46</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>47</v>
       </c>
       <c r="G9" s="74"/>
       <c r="H9" s="60">
         <v>1000</v>
       </c>
       <c r="I9" s="75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="70"/>
       <c r="K9" s="79">
@@ -2886,10 +2908,10 @@
     </row>
     <row r="10" spans="1:19" ht="106.5">
       <c r="A10" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="58" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>50</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="59">
@@ -2902,7 +2924,7 @@
       </c>
       <c r="H10" s="58"/>
       <c r="I10" s="58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J10" s="62"/>
       <c r="K10" s="59"/>
@@ -2920,10 +2942,10 @@
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
       <c r="E11" s="59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="87">
         <v>0</v>
@@ -2932,7 +2954,7 @@
         <v>23460</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" s="62"/>
       <c r="K11" s="59"/>
@@ -2944,7 +2966,7 @@
         <v>24</v>
       </c>
       <c r="O11" s="59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P11" s="59"/>
       <c r="Q11" s="59"/>
@@ -2956,10 +2978,10 @@
       <c r="C12" s="59"/>
       <c r="D12" s="85"/>
       <c r="E12" s="59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" s="90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="86"/>
       <c r="H12" s="91">
@@ -2990,7 +3012,7 @@
       <c r="C13" s="59"/>
       <c r="D13" s="85"/>
       <c r="E13" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="92" t="s">
         <v>21</v>
@@ -3020,32 +3042,32 @@
     </row>
     <row r="14" spans="1:19" ht="137.25">
       <c r="A14" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="59" t="s">
         <v>58</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>59</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="85">
         <v>1780000</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="86"/>
       <c r="H14" s="94">
         <v>16929</v>
       </c>
       <c r="I14" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J14" s="62"/>
       <c r="K14" s="59"/>
       <c r="L14" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M14" s="59"/>
       <c r="N14" s="59" t="s">
@@ -3055,23 +3077,23 @@
         <v>33</v>
       </c>
       <c r="P14" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="59"/>
       <c r="R14" s="59"/>
     </row>
     <row r="15" spans="1:19" ht="106.5">
       <c r="A15" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
       <c r="D15" s="85"/>
       <c r="E15" s="59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="86"/>
       <c r="H15" s="89">
@@ -3083,7 +3105,7 @@
         <v>0.51</v>
       </c>
       <c r="L15" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M15" s="59"/>
       <c r="N15" s="59" t="s">
@@ -3093,7 +3115,7 @@
         <v>33</v>
       </c>
       <c r="P15" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q15" s="59"/>
       <c r="R15" s="59"/>
@@ -3104,7 +3126,7 @@
       <c r="C16" s="59"/>
       <c r="D16" s="85"/>
       <c r="E16" s="59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="95" t="s">
         <v>67</v>
@@ -3117,7 +3139,7 @@
       <c r="J16" s="62"/>
       <c r="K16" s="59"/>
       <c r="L16" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M16" s="59"/>
       <c r="N16" s="59" t="s">
@@ -3127,7 +3149,7 @@
         <v>33</v>
       </c>
       <c r="P16" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="59"/>
       <c r="R16" s="59"/>
@@ -3147,7 +3169,7 @@
       <c r="J17" s="62"/>
       <c r="K17" s="59"/>
       <c r="L17" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M17" s="59"/>
       <c r="N17" s="59" t="s">
@@ -3157,7 +3179,7 @@
         <v>33</v>
       </c>
       <c r="P17" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="59"/>
       <c r="R17" s="59"/>
@@ -3177,7 +3199,7 @@
       <c r="J18" s="62"/>
       <c r="K18" s="59"/>
       <c r="L18" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M18" s="59"/>
       <c r="N18" s="59" t="s">
@@ -3187,7 +3209,7 @@
         <v>33</v>
       </c>
       <c r="P18" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q18" s="59"/>
       <c r="R18" s="59"/>
@@ -3202,7 +3224,7 @@
         <v>1346173</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="97" t="s">
         <v>21</v>
@@ -3215,7 +3237,7 @@
       <c r="J19" s="62"/>
       <c r="K19" s="59"/>
       <c r="L19" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M19" s="59"/>
       <c r="N19" s="59" t="s">
@@ -3225,7 +3247,7 @@
         <v>41</v>
       </c>
       <c r="P19" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="59"/>
       <c r="R19" s="59"/>
@@ -3257,7 +3279,7 @@
       <c r="J20" s="62"/>
       <c r="K20" s="59"/>
       <c r="L20" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M20" s="59"/>
       <c r="N20" s="59" t="s">
@@ -3267,7 +3289,7 @@
         <v>41</v>
       </c>
       <c r="P20" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q20" s="59"/>
       <c r="R20" s="59"/>
@@ -3295,7 +3317,7 @@
       <c r="J21" s="62"/>
       <c r="K21" s="59"/>
       <c r="L21" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M21" s="59"/>
       <c r="N21" s="59" t="s">
@@ -3305,7 +3327,7 @@
         <v>41</v>
       </c>
       <c r="P21" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="59"/>
       <c r="R21" s="59"/>
@@ -3325,7 +3347,7 @@
       <c r="J22" s="62"/>
       <c r="K22" s="59"/>
       <c r="L22" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M22" s="59"/>
       <c r="N22" s="59" t="s">
@@ -3335,7 +3357,7 @@
         <v>41</v>
       </c>
       <c r="P22" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="59"/>
       <c r="R22" s="59"/>
@@ -3355,7 +3377,7 @@
       <c r="J23" s="70"/>
       <c r="K23" s="59"/>
       <c r="L23" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M23" s="59"/>
       <c r="N23" s="59" t="s">
@@ -3365,7 +3387,7 @@
         <v>41</v>
       </c>
       <c r="P23" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="59"/>
       <c r="R23" s="59"/>
@@ -3385,7 +3407,7 @@
       <c r="J24" s="70"/>
       <c r="K24" s="59"/>
       <c r="L24" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M24" s="59"/>
       <c r="N24" s="59" t="s">
@@ -3395,7 +3417,7 @@
         <v>41</v>
       </c>
       <c r="P24" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q24" s="59"/>
       <c r="R24" s="59"/>
@@ -3515,14 +3537,14 @@
         <v>8</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15">
       <c r="A2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="107" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="3">
@@ -3532,7 +3554,7 @@
         <v>81</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="19">
@@ -3547,7 +3569,7 @@
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="107"/>
       <c r="C3"/>
       <c r="D3" s="6"/>
       <c r="E3" s="3" t="s">
@@ -3560,7 +3582,7 @@
         <v>28</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I3" s="29" t="s">
         <v>29</v>
@@ -3569,7 +3591,7 @@
     </row>
     <row r="4" spans="1:17" ht="229.5">
       <c r="A4"/>
-      <c r="B4" s="101"/>
+      <c r="B4" s="107"/>
       <c r="C4"/>
       <c r="D4" s="6"/>
       <c r="F4" s="20" t="s">
@@ -3577,7 +3599,7 @@
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>32</v>
@@ -3586,7 +3608,7 @@
     </row>
     <row r="5" spans="1:17" ht="121.5">
       <c r="A5"/>
-      <c r="B5" s="101"/>
+      <c r="B5" s="107"/>
       <c r="C5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="3" t="s">
@@ -3599,10 +3621,10 @@
         <v>35</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J5" s="37"/>
     </row>
@@ -3610,7 +3632,7 @@
       <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="108" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="9"/>
@@ -3628,9 +3650,9 @@
     </row>
     <row r="7" spans="1:17" ht="45.75">
       <c r="A7" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="102"/>
+        <v>84</v>
+      </c>
+      <c r="B7" s="108"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="22" t="s">
@@ -3641,7 +3663,7 @@
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>40</v>
@@ -3650,41 +3672,41 @@
     </row>
     <row r="8" spans="1:17" ht="76.5">
       <c r="A8" s="8"/>
-      <c r="B8" s="102"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" s="36"/>
     </row>
     <row r="9" spans="1:17" ht="137.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="102"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="36"/>
     </row>
@@ -3694,16 +3716,16 @@
     </row>
     <row r="11" spans="1:17" ht="106.5">
       <c r="A11" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="109" t="s">
         <v>49</v>
-      </c>
-      <c r="B11" s="103" t="s">
-        <v>50</v>
       </c>
       <c r="D11" s="3">
         <v>6000000</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G11" s="25">
         <v>0</v>
@@ -3712,20 +3734,20 @@
         <v>7</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="60.75">
-      <c r="B12" s="103"/>
+      <c r="B12" s="109"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="25">
         <v>0</v>
@@ -3734,17 +3756,17 @@
         <v>23460</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J12" s="37"/>
       <c r="Q12" s="42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="45.75">
-      <c r="B13" s="103"/>
+      <c r="B13" s="109"/>
       <c r="F13" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G13" s="41">
         <v>0</v>
@@ -3753,29 +3775,29 @@
         <v>21</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="46.5">
-      <c r="B14" s="103"/>
+      <c r="B14" s="109"/>
       <c r="F14" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J14" s="37"/>
     </row>
     <row r="15" spans="1:17" ht="46.5">
-      <c r="B15" s="103"/>
+      <c r="B15" s="109"/>
       <c r="E15" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J15" s="37"/>
     </row>
@@ -3786,46 +3808,46 @@
     </row>
     <row r="17" spans="1:10" ht="137.25">
       <c r="A17" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D17" s="5">
         <v>1780000</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10" ht="106.5">
       <c r="A18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="H18" s="39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10" ht="76.5">
       <c r="F19" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J19" s="37"/>
     </row>
@@ -3835,7 +3857,7 @@
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J20" s="37"/>
     </row>
@@ -3844,12 +3866,12 @@
         <v>69</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10" ht="30.75">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="108" t="s">
         <v>70</v>
       </c>
       <c r="D22" s="5">
@@ -3857,56 +3879,56 @@
       </c>
       <c r="F22" s="30"/>
       <c r="H22" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I22" s="28"/>
       <c r="J22" s="37"/>
     </row>
     <row r="23" spans="1:10" ht="15">
-      <c r="B23" s="102"/>
+      <c r="B23" s="108"/>
       <c r="J23" s="37"/>
     </row>
     <row r="24" spans="1:10" ht="15">
-      <c r="B24" s="102"/>
+      <c r="B24" s="108"/>
       <c r="D24"/>
       <c r="E24" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J24" s="37"/>
     </row>
     <row r="25" spans="1:10" ht="15">
-      <c r="B25" s="102"/>
+      <c r="B25" s="108"/>
       <c r="D25"/>
       <c r="E25" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J25" s="37"/>
     </row>
     <row r="26" spans="1:10" ht="15">
-      <c r="B26" s="102"/>
+      <c r="B26" s="108"/>
       <c r="D26"/>
       <c r="E26" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J26" s="37"/>
     </row>
     <row r="27" spans="1:10" ht="15">
-      <c r="B27" s="102"/>
+      <c r="B27" s="108"/>
       <c r="D27"/>
       <c r="E27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J27" s="37"/>
     </row>
@@ -3928,10 +3950,10 @@
         <v>73</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>75</v>
@@ -3943,10 +3965,10 @@
         <v>76</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>77</v>
@@ -4075,7 +4097,7 @@
     <row r="1" spans="1:5" ht="14.45"/>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4089,389 +4111,389 @@
     </row>
     <row r="5" spans="1:5" ht="32.25">
       <c r="A5" s="43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.75">
       <c r="A6" s="45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30.75">
       <c r="A7" s="45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="104" t="s">
-        <v>202</v>
-      </c>
-      <c r="B27" s="105"/>
-      <c r="C27" s="106"/>
+      <c r="A27" s="110" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="111"/>
+      <c r="C27" s="112"/>
       <c r="D27" s="52" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4483,15 +4505,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -4740,6 +4753,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4789,11 +4811,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CEBF5D9-26ED-4E41-8B9E-551815C61387}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CEBF5D9-26ED-4E41-8B9E-551815C61387}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/01_Input/00_CO Validation/Mali - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Mali - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam.coulibaly\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="344" documentId="13_ncr:1_{A2F0156B-761F-4243-96E8-3CD598E6E0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73E20055-7597-428D-BE64-93858EDFA2B8}"/>
+  <xr:revisionPtr revIDLastSave="425" documentId="13_ncr:1_{A2F0156B-761F-4243-96E8-3CD598E6E0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F109E53C-6B04-49F6-B03E-61EE67A67BAC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Projects (2)" sheetId="4" r:id="rId2"/>
     <sheet name="Projects" sheetId="1" r:id="rId3"/>
     <sheet name="Beneficiaries SANDI" sheetId="3" r:id="rId4"/>
+    <sheet name="Beneficiary Categories" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="254">
   <si>
     <t>Project ID</t>
   </si>
@@ -74,7 +75,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -95,12 +96,21 @@
     <t>Indirect Taxonomy</t>
   </si>
   <si>
-    <t>00125788</t>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
   </si>
   <si>
     <t>Accès aux énergies propres dans les zones rurales du Liptako Gourma</t>
   </si>
   <si>
+    <t>https://open.undp.org/projects/00134123</t>
+  </si>
+  <si>
     <t>Clean Cooking</t>
   </si>
   <si>
@@ -110,13 +120,13 @@
     <t xml:space="preserve">The target is to reach 330000 people in Mali, Burkina Faso and Niger.  </t>
   </si>
   <si>
+    <t>ASDI</t>
+  </si>
+  <si>
     <t>Non-VF</t>
   </si>
   <si>
-    <t>Accelerating just energy transition</t>
-  </si>
-  <si>
-    <t>ASDI</t>
+    <t>Close the gap on energy access</t>
   </si>
   <si>
     <t>Policy and Regulatory Framework</t>
@@ -131,7 +141,13 @@
     <t>This pilot project is being implemented by UNDP and UNOPS in partnership with ECREE. The platforms have been created, and the DREI analyses and clean cooking studies have been submitted. The feasibility studies for the plants have been finalised. Construction of the plants remains to be done this year.</t>
   </si>
   <si>
-    <t>Incentives and Support</t>
+    <t>Electricity Access</t>
+  </si>
+  <si>
+    <t>Legal Framework</t>
+  </si>
+  <si>
+    <t>National</t>
   </si>
   <si>
     <t>Number of measures and financial instruments put in place and operational to increase private investment (DREI)</t>
@@ -145,9 +161,6 @@
 for young people will be an alternative to rural exodus and irregular migration.</t>
   </si>
   <si>
-    <t>Electricity Access</t>
-  </si>
-  <si>
     <t>Off-grid rural electrification solutions provided to target communities (6 mini photovoltaic power grids)</t>
   </si>
   <si>
@@ -157,31 +170,43 @@
     <t>The number of minigrids direct beneficiaries will derive from feasibility study. The feasibility study is not yet finalized. 6 mini power grids</t>
   </si>
   <si>
-    <t>00130075 </t>
+    <t>130075 </t>
   </si>
   <si>
     <t>Femmes illuminant les chemins vers la paix</t>
   </si>
   <si>
+    <t>https://open.undp.org/projects/00125461</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of situational analyses carried out/number of extension tools produced </t>
   </si>
   <si>
     <t>Result 1: Women and girls participate effectively in the management of natural resources and women's leadership is strengthened on environmental issues and reduces inter-community tensions.</t>
   </si>
   <si>
-    <t>Energy Efficiency</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Incentives and Support</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>Not mentioned</t>
+  </si>
+  <si>
+    <t>Capacity Building Training</t>
   </si>
   <si>
     <t>Number of women</t>
   </si>
   <si>
     <t xml:space="preserve">Result 2: The project's women's and girls' groups and associations become key players in recovery through increased productivity and profitability of renewable energies and mobilisation for peace. </t>
-  </si>
-  <si>
-    <t>income generating activities</t>
   </si>
   <si>
     <t>Number of beneficiary women</t>
@@ -193,9 +218,6 @@
 Reduction in the discharge of market garden waste into the environment and reduction in air pollution by methanisation of this waste.</t>
   </si>
   <si>
-    <t>00121587</t>
-  </si>
-  <si>
     <t>Energie solaire, télésanté et protection sociale pour transformer la santé communautaire au Mali (SanDi)/RFF</t>
   </si>
   <si>
@@ -208,21 +230,12 @@
     <t>This pilot phase of the SanDi project covers the regions of Kayes, Koulikoro, Sikasso, Ségou, Mopti, Bandiagara and the District of Bamako, and involves 7 referral health centres and 21 community health centres. A scale-up phase is currently being developed.</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>Renewable Energy</t>
-  </si>
-  <si>
     <t>Number of healthcare practitioners trained in the use and maintenance of the systems, broken down by gender and age (target: 50% women, 30% aged between 18 and 40).</t>
   </si>
   <si>
     <t>Other Energy Services</t>
   </si>
   <si>
-    <t>00129014</t>
-  </si>
-  <si>
     <t>Africa Migrid Program</t>
   </si>
   <si>
@@ -235,17 +248,17 @@
     <t>The prodoc has been endorsed by the GEF.The project will start in September 2023 at the latest.The project is expected to bring about direct commissioning of at least 0.309 MW in solar photovoltaic (PV) generation capacity and 0.754 MWh of battery storage. The lifetime greenhouse gas (GHG) emissions reduction from project activities, particularly investment in minigrid pilots, is estimated at 16,929 metric tons of carbon dioxide equivalent (tCO2eq) (direct) and 631,697 tCO2eq (indirect). The number of direct beneficiaries is estimated at 8,665 people, of which 51% percent are women, as a result of 1,752 new minigrid connections.</t>
   </si>
   <si>
-    <t>VF</t>
+    <t>GEF/UNDP</t>
   </si>
   <si>
     <t>AMP</t>
-  </si>
-  <si>
-    <t>GEF/UNDP</t>
   </si>
   <si>
     <t>Indicator 2: Number of direct beneficiaries benefitting from energy access via minigrids, disaggregated by gender and by customer segment (residential, social, commercial/productive use) as co-benefit of GEF investment
 Units of measure: number of people</t>
+  </si>
+  <si>
+    <t>Solar</t>
   </si>
   <si>
     <t>Energy (MW added)</t>
@@ -267,13 +280,10 @@
     <t>Facilité de Stabilisation</t>
   </si>
   <si>
-    <t>00124853</t>
-  </si>
-  <si>
     <t>Ten Country: Scaling Solar Applications for Agricultural Use</t>
   </si>
   <si>
-    <t>Agricultural Services</t>
+    <t>Agriculture and Food System</t>
   </si>
   <si>
     <t>Number of farmers</t>
@@ -303,30 +313,63 @@
     <t>Indicator 3.2 Number of individuals (men and women) trained to install, operate and service solar water pumps; and also on business development and financing  for solar water pump deployment.</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>00125788</t>
+  </si>
+  <si>
     <t>Clean cooking</t>
   </si>
   <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
     <t>Policy and regulatory framework</t>
   </si>
   <si>
+    <t>00130075 </t>
+  </si>
+  <si>
     <t>Joint project PNUD/ONUFEMMES/Cercles de Mopti et Koro</t>
   </si>
   <si>
     <t>PBF</t>
   </si>
   <si>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
     <t>Capacity training</t>
   </si>
   <si>
+    <t>income generating activities</t>
+  </si>
+  <si>
+    <t>00121587</t>
+  </si>
+  <si>
     <t>The digitisation of health centres using solar energy sources has enabled : Improved patient care (diagnostic and prescription assistance); Increased revenue for health centres (pharmacy, laboratory, admissions office);Availability of quality data for decision-makers; and Telemedicine (reduction in referrals and care costs, easier access to rare specialists, the absence of doctors in several health centres, particularly in rural areas, is a reality).</t>
   </si>
   <si>
     <t>Health services</t>
   </si>
   <si>
+    <t>00129014</t>
+  </si>
+  <si>
     <t>Electriciy access</t>
   </si>
   <si>
+    <t>VF</t>
+  </si>
+  <si>
+    <t>00124853</t>
+  </si>
+  <si>
+    <t>Agricultural Services</t>
+  </si>
+  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -676,6 +719,108 @@
   </si>
   <si>
     <t>197 437</t>
+  </si>
+  <si>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
+  </si>
+  <si>
+    <t>Water Services</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
+  </si>
+  <si>
+    <t>Education Services</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
+  </si>
+  <si>
+    <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
+  </si>
+  <si>
+    <t>Medium Enterprises</t>
+  </si>
+  <si>
+    <t>Support for the development of medium enterprises in the energy transition market</t>
+  </si>
+  <si>
+    <t>Small Enterprises</t>
+  </si>
+  <si>
+    <t>Support for the development of small enterprises in the energy transition market</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
+  </si>
+  <si>
+    <t>Entrepreneurship Training</t>
+  </si>
+  <si>
+    <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
+  </si>
+  <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
+    <t>Campaign Participant</t>
+  </si>
+  <si>
+    <t>Individuals who participate in advocacy and campaign on energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Any other type of beneficiary (please specify justification in Notes)</t>
   </si>
 </sst>
 </file>
@@ -685,12 +830,18 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -828,8 +979,27 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -848,8 +1018,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -998,17 +1174,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1024,150 +1250,150 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1175,141 +1401,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1319,14 +1572,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1633,11 +1898,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6862F19C-8642-4B58-A999-630DD4FA404B}">
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:U68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <pane ySplit="1" topLeftCell="L2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W1" sqref="W1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1652,12 +1917,18 @@
     <col min="9" max="9" width="65.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="21.85546875" style="3" customWidth="1"/>
     <col min="11" max="13" width="9.140625" style="3"/>
-    <col min="14" max="14" width="30.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="3"/>
+    <col min="16" max="16" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
@@ -1691,140 +1962,161 @@
       <c r="K1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="56" t="s">
+      <c r="O1" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="56" t="s">
+      <c r="P1" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="56"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="S1" s="113" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="45.75">
+      <c r="A2" s="57">
+        <v>125788</v>
+      </c>
       <c r="B2" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="59"/>
+        <v>21</v>
+      </c>
+      <c r="C2" s="124" t="s">
+        <v>22</v>
+      </c>
       <c r="D2" s="59">
         <v>8498746</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" s="61"/>
       <c r="H2" s="60">
         <v>330000</v>
       </c>
       <c r="I2" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="62"/>
+        <v>25</v>
+      </c>
+      <c r="J2" s="117" t="s">
+        <v>26</v>
+      </c>
       <c r="K2" s="59"/>
-      <c r="L2" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-    </row>
-    <row r="3" spans="1:19" ht="91.5">
-      <c r="A3" s="59" t="s">
-        <v>25</v>
-      </c>
+      <c r="L2" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="107"/>
+      <c r="N2" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="116"/>
+    </row>
+    <row r="3" spans="1:21" ht="91.5">
+      <c r="A3" s="59"/>
       <c r="B3" s="58"/>
       <c r="C3" s="63"/>
       <c r="D3" s="64"/>
       <c r="E3" s="59" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" s="60">
         <v>1</v>
       </c>
       <c r="I3" s="66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J3" s="67"/>
       <c r="K3" s="59"/>
-      <c r="L3" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="59" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="229.5">
+      <c r="L3" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="107"/>
+      <c r="N3" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="116"/>
+      <c r="T3" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="116"/>
+    </row>
+    <row r="4" spans="1:21" ht="246.75" customHeight="1">
       <c r="A4" s="63"/>
       <c r="B4" s="58"/>
       <c r="C4" s="63"/>
       <c r="D4" s="64"/>
       <c r="E4" s="59"/>
       <c r="F4" s="65" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="60">
         <v>1</v>
       </c>
       <c r="I4" s="69" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J4" s="70"/>
       <c r="K4" s="59"/>
-      <c r="L4" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-    </row>
-    <row r="5" spans="1:19" ht="121.5">
+      <c r="L4" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="107"/>
+      <c r="N4" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="116"/>
+    </row>
+    <row r="5" spans="1:21" ht="121.5">
       <c r="A5" s="63"/>
       <c r="B5" s="58"/>
       <c r="C5" s="63"/>
@@ -1833,165 +2125,181 @@
         <v>33</v>
       </c>
       <c r="F5" s="65" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="60"/>
+        <v>39</v>
+      </c>
+      <c r="H5" s="60">
+        <v>30000</v>
+      </c>
       <c r="I5" s="71" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J5" s="62"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-    </row>
-    <row r="6" spans="1:19" ht="45.75">
+      <c r="K5" s="79">
+        <v>0.4</v>
+      </c>
+      <c r="L5" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="107"/>
+      <c r="N5" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="116"/>
+    </row>
+    <row r="6" spans="1:21" ht="45.75">
       <c r="A6" s="72" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="73"/>
+        <v>42</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>43</v>
+      </c>
       <c r="D6" s="72">
         <v>1500000</v>
       </c>
       <c r="E6" s="78" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F6" s="61" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G6" s="74"/>
       <c r="H6" s="78">
         <v>1</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J6" s="70"/>
       <c r="K6" s="79">
         <v>1</v>
       </c>
-      <c r="L6" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" s="59" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="45.75">
+      <c r="L6" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="107"/>
+      <c r="N6" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="116"/>
+      <c r="T6" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="116" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="45.75">
       <c r="A7" s="76"/>
       <c r="B7" s="59"/>
       <c r="C7" s="73"/>
       <c r="D7" s="77"/>
       <c r="E7" s="80" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G7" s="74"/>
       <c r="H7" s="60">
         <v>1000</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J7" s="70"/>
       <c r="K7" s="79">
         <v>1</v>
       </c>
-      <c r="L7" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-    </row>
-    <row r="8" spans="1:19" ht="137.25">
+      <c r="L7" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="107"/>
+      <c r="N7" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="116"/>
+    </row>
+    <row r="8" spans="1:21" ht="137.25">
       <c r="A8" s="81"/>
       <c r="B8" s="59"/>
       <c r="C8" s="82"/>
       <c r="D8" s="83"/>
-      <c r="E8" s="100" t="s">
-        <v>45</v>
+      <c r="E8" s="106" t="s">
+        <v>23</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G8" s="74"/>
       <c r="H8" s="60">
         <v>1000</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J8" s="70"/>
       <c r="K8" s="79">
         <v>1</v>
       </c>
-      <c r="L8" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-    </row>
-    <row r="9" spans="1:19" ht="60.75">
-      <c r="A9" s="84" t="s">
-        <v>48</v>
+      <c r="L8" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="107"/>
+      <c r="N8" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="116"/>
+    </row>
+    <row r="9" spans="1:21" ht="60.75">
+      <c r="A9" s="84">
+        <v>121587</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="59">
         <v>6000000</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G9" s="87">
         <v>0</v>
@@ -2000,36 +2308,35 @@
         <v>23460</v>
       </c>
       <c r="I9" s="58" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J9" s="62"/>
       <c r="K9" s="59"/>
-      <c r="L9" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-    </row>
-    <row r="10" spans="1:19" ht="46.5">
+      <c r="L9" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="107"/>
+      <c r="N9" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="116"/>
+    </row>
+    <row r="10" spans="1:21" ht="48">
       <c r="A10" s="59"/>
       <c r="B10" s="58"/>
       <c r="C10" s="59"/>
       <c r="D10" s="85"/>
       <c r="E10" s="59" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F10" s="90" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G10" s="86"/>
       <c r="H10" s="91">
@@ -2040,32 +2347,31 @@
       <c r="K10" s="79">
         <v>0.19</v>
       </c>
-      <c r="L10" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="L10" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="107"/>
+      <c r="N10" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="116"/>
+    </row>
+    <row r="11" spans="1:21" ht="45.75">
       <c r="A11" s="59"/>
       <c r="B11" s="58"/>
       <c r="C11" s="59"/>
       <c r="D11" s="85"/>
       <c r="E11" s="59" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F11" s="92" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G11" s="86"/>
       <c r="H11" s="58">
@@ -2076,66 +2382,68 @@
       <c r="K11" s="79">
         <v>0.77</v>
       </c>
-      <c r="L11" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-    </row>
-    <row r="12" spans="1:19" ht="137.25">
-      <c r="A12" s="84" t="s">
-        <v>57</v>
+      <c r="L11" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="107"/>
+      <c r="N11" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="116"/>
+    </row>
+    <row r="12" spans="1:21" ht="137.25">
+      <c r="A12" s="84">
+        <v>129014</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C12" s="59"/>
       <c r="D12" s="85">
         <v>1780000</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F12" s="93" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G12" s="86"/>
       <c r="H12" s="94">
         <v>16929</v>
       </c>
       <c r="I12" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="62"/>
+        <v>65</v>
+      </c>
+      <c r="J12" s="62" t="s">
+        <v>66</v>
+      </c>
       <c r="K12" s="59"/>
-      <c r="L12" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-    </row>
-    <row r="13" spans="1:19" ht="106.5">
-      <c r="A13" s="59" t="s">
-        <v>64</v>
-      </c>
+      <c r="L12" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="107"/>
+      <c r="N12" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="116"/>
+    </row>
+    <row r="13" spans="1:21" ht="106.5">
+      <c r="A13" s="59"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
       <c r="D13" s="85"/>
@@ -2143,7 +2451,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G13" s="86"/>
       <c r="H13" s="89">
@@ -2154,32 +2462,35 @@
       <c r="K13" s="79">
         <v>0.51</v>
       </c>
-      <c r="L13" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-    </row>
-    <row r="14" spans="1:19" ht="91.5">
+      <c r="L13" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="107"/>
+      <c r="N13" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="T13" s="107"/>
+      <c r="U13" s="116"/>
+    </row>
+    <row r="14" spans="1:21" ht="91.5">
       <c r="A14" s="59"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
       <c r="D14" s="85"/>
       <c r="E14" s="81" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F14" s="95" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G14" s="86"/>
       <c r="H14" s="88">
@@ -2188,96 +2499,99 @@
       <c r="I14" s="58"/>
       <c r="J14" s="62"/>
       <c r="K14" s="59"/>
-      <c r="L14" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-    </row>
-    <row r="15" spans="1:19" ht="30.75">
+      <c r="L14" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="107"/>
+      <c r="N14" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="116"/>
+    </row>
+    <row r="15" spans="1:21" ht="45.75">
       <c r="A15" s="59"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
       <c r="D15" s="85"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="103"/>
-      <c r="H15" s="104"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="102"/>
+      <c r="H15" s="103"/>
       <c r="I15" s="58"/>
       <c r="J15" s="62"/>
       <c r="K15" s="59"/>
-      <c r="L15" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-    </row>
-    <row r="16" spans="1:19" ht="137.25">
+      <c r="L15" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="107"/>
+      <c r="N15" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="116"/>
+    </row>
+    <row r="16" spans="1:21" ht="137.25">
       <c r="A16" s="59"/>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
       <c r="D16" s="85"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="106"/>
-      <c r="H16" s="104"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="105"/>
+      <c r="H16" s="103"/>
       <c r="I16" s="58"/>
       <c r="J16" s="62"/>
       <c r="K16" s="59"/>
-      <c r="L16" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="L16" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="107"/>
+      <c r="N16" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="107"/>
+      <c r="S16" s="116"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="116"/>
+    </row>
+    <row r="17" spans="1:21" ht="45.75">
       <c r="A17" s="59"/>
       <c r="B17" s="59" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="85">
         <v>1346173</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F17" s="97" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G17" s="86"/>
       <c r="H17" s="58">
@@ -2286,196 +2600,202 @@
       <c r="I17" s="98"/>
       <c r="J17" s="62"/>
       <c r="K17" s="59"/>
-      <c r="L17" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O17" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="P17" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-    </row>
-    <row r="18" spans="1:18" ht="30.75">
-      <c r="A18" s="84" t="s">
-        <v>71</v>
+      <c r="L17" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="107"/>
+      <c r="N17" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="116"/>
+    </row>
+    <row r="18" spans="1:21" ht="45.75">
+      <c r="A18" s="84">
+        <v>124853</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="85">
         <v>200000</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F18" s="58" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G18" s="86"/>
       <c r="H18" s="58">
         <v>200</v>
       </c>
       <c r="I18" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="62"/>
+        <v>78</v>
+      </c>
+      <c r="J18" s="117" t="s">
+        <v>79</v>
+      </c>
       <c r="K18" s="59"/>
-      <c r="L18" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="P18" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-    </row>
-    <row r="19" spans="1:18" ht="137.25">
-      <c r="A19" s="59" t="s">
-        <v>76</v>
-      </c>
+      <c r="L18" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="107"/>
+      <c r="N18" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="116"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="116"/>
+    </row>
+    <row r="19" spans="1:21" ht="137.25">
+      <c r="A19" s="59"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
       <c r="D19" s="85"/>
       <c r="E19" s="59" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F19" s="58" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G19" s="86"/>
       <c r="H19" s="58">
         <v>400</v>
       </c>
       <c r="I19" s="58" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J19" s="62"/>
       <c r="K19" s="59"/>
-      <c r="L19" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="P19" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-    </row>
-    <row r="20" spans="1:18" ht="137.25">
+      <c r="L19" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="107"/>
+      <c r="N19" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="107"/>
+      <c r="U19" s="116"/>
+    </row>
+    <row r="20" spans="1:21" ht="137.25">
       <c r="A20" s="59"/>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
       <c r="D20" s="85"/>
       <c r="E20" s="59"/>
       <c r="F20" s="58" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G20" s="86"/>
       <c r="H20" s="58"/>
       <c r="I20" s="58"/>
       <c r="J20" s="62"/>
       <c r="K20" s="59"/>
-      <c r="L20" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O20" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="P20" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-    </row>
-    <row r="21" spans="1:18" ht="45.75">
+      <c r="L20" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="107"/>
+      <c r="N20" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="116"/>
+    </row>
+    <row r="21" spans="1:21" ht="45.75">
       <c r="A21" s="59"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
       <c r="D21" s="85"/>
       <c r="E21" s="59"/>
       <c r="F21" s="58" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G21" s="86"/>
       <c r="H21" s="58"/>
       <c r="I21" s="58"/>
       <c r="J21" s="70"/>
       <c r="K21" s="59"/>
-      <c r="L21" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="P21" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-    </row>
-    <row r="22" spans="1:18" ht="76.5">
+      <c r="L21" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="107"/>
+      <c r="N21" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="116"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="116"/>
+    </row>
+    <row r="22" spans="1:21" ht="76.5">
       <c r="A22" s="59"/>
       <c r="B22" s="59"/>
       <c r="C22" s="59"/>
       <c r="D22" s="85"/>
       <c r="E22" s="59"/>
       <c r="F22" s="58" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G22" s="86"/>
       <c r="H22" s="58"/>
       <c r="I22" s="58"/>
       <c r="J22" s="70"/>
       <c r="K22" s="59"/>
-      <c r="L22" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="P22" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="L22" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="107"/>
+      <c r="N22" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="116"/>
+    </row>
+    <row r="23" spans="1:21">
       <c r="J23" s="36"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:21">
       <c r="J24" s="36"/>
     </row>
     <row r="34" spans="4:4">
@@ -2513,25 +2833,53 @@
       <c r="D68" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R22" xr:uid="{724CA488-9A84-436D-9005-AE2D616A72F5}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
-    </dataValidation>
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q22" xr:uid="{16A062E7-37A2-4F99-BC9A-D7EE52542C7E}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P22" xr:uid="{6A4E97A1-B752-4A7A-BC0C-524919B1B5C2}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O22" xr:uid="{FD5E4519-DFF5-4FCE-AD1C-3877D7AB164B}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N22" xr:uid="{885676E1-A1AB-428E-AFCA-A6F3770DECB9}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O22" xr:uid="{479951AA-5BB8-4300-8FD3-AB1A12477AC7}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L22" xr:uid="{06FD81B3-49A2-4829-9FE2-97CC5A936350}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M22" xr:uid="{11224907-FA7F-4531-85A8-BC0470B13E22}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T22" xr:uid="{F88E14B3-FC72-474C-82E9-BA81AC0741AE}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R22" xr:uid="{0EFFF513-994B-461D-81AB-906F84FC8DC1}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S22" xr:uid="{6E1AC535-1049-450F-AEB0-EAF87030BC8E}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
+    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{E13C6AF7-E69A-4DF8-8CEE-D06BF03AB1A4}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{9D6B3E0A-F8D8-4A58-8B11-70772D3FB718}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D081C4AE-8185-41BB-B4CA-72D7991CC7ED}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E22</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2596,7 +2944,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="M1" s="56" t="s">
         <v>12</v>
@@ -2620,39 +2968,39 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="57" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="59">
         <v>8498746</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" s="61"/>
       <c r="H2" s="60">
         <v>330000</v>
       </c>
       <c r="I2" s="61" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J2" s="62"/>
       <c r="K2" s="59"/>
       <c r="L2" s="59" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M2" s="59"/>
       <c r="N2" s="59" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O2" s="59" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P2" s="59"/>
       <c r="Q2" s="59"/>
@@ -2660,44 +3008,44 @@
     </row>
     <row r="3" spans="1:19" ht="91.5">
       <c r="A3" s="59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="63"/>
       <c r="D3" s="64"/>
       <c r="E3" s="59" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" s="60">
         <v>1</v>
       </c>
       <c r="I3" s="66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J3" s="67"/>
       <c r="K3" s="59"/>
       <c r="L3" s="59" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M3" s="59"/>
       <c r="N3" s="59" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O3" s="59" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P3" s="59"/>
       <c r="Q3" s="59" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="R3" s="59" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="229.5">
@@ -2707,19 +3055,19 @@
       <c r="D4" s="64"/>
       <c r="E4" s="59"/>
       <c r="F4" s="65" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="60">
         <v>1</v>
       </c>
       <c r="I4" s="69" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J4" s="70"/>
       <c r="K4" s="59"/>
       <c r="L4" s="59" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M4" s="59"/>
       <c r="N4" s="59"/>
@@ -2737,23 +3085,23 @@
         <v>33</v>
       </c>
       <c r="F5" s="65" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H5" s="60"/>
       <c r="I5" s="71" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J5" s="62"/>
       <c r="K5" s="59"/>
       <c r="L5" s="59" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M5" s="59"/>
       <c r="N5" s="59" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O5" s="59" t="s">
         <v>33</v>
@@ -2764,10 +3112,10 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="72" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C6" s="73"/>
       <c r="D6" s="72">
@@ -2778,12 +3126,12 @@
       <c r="G6" s="74"/>
       <c r="H6" s="74"/>
       <c r="I6" s="75" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="J6" s="70"/>
       <c r="K6" s="59"/>
       <c r="L6" s="59" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M6" s="59"/>
       <c r="N6" s="59"/>
@@ -2794,44 +3142,44 @@
     </row>
     <row r="7" spans="1:19" ht="45.75">
       <c r="A7" s="76" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="73"/>
       <c r="D7" s="77"/>
       <c r="E7" s="78" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G7" s="74"/>
       <c r="H7" s="78">
         <v>1</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J7" s="70"/>
       <c r="K7" s="79">
         <v>1</v>
       </c>
       <c r="L7" s="59" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M7" s="59"/>
       <c r="N7" s="59" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O7" s="59" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="P7" s="59"/>
       <c r="Q7" s="59" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="R7" s="59" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="45.75">
@@ -2840,31 +3188,31 @@
       <c r="C8" s="73"/>
       <c r="D8" s="77"/>
       <c r="E8" s="80" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G8" s="74"/>
       <c r="H8" s="60">
         <v>1000</v>
       </c>
       <c r="I8" s="58" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J8" s="70"/>
       <c r="K8" s="79">
         <v>1</v>
       </c>
       <c r="L8" s="59" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M8" s="59"/>
       <c r="N8" s="59" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O8" s="59" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="P8" s="59"/>
       <c r="Q8" s="59"/>
@@ -2876,31 +3224,31 @@
       <c r="C9" s="82"/>
       <c r="D9" s="83"/>
       <c r="E9" s="80" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G9" s="74"/>
       <c r="H9" s="60">
         <v>1000</v>
       </c>
       <c r="I9" s="75" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J9" s="70"/>
       <c r="K9" s="79">
         <v>1</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M9" s="59"/>
       <c r="N9" s="59" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O9" s="59" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="P9" s="59"/>
       <c r="Q9" s="59"/>
@@ -2908,10 +3256,10 @@
     </row>
     <row r="10" spans="1:19" ht="106.5">
       <c r="A10" s="84" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="59">
@@ -2924,7 +3272,7 @@
       </c>
       <c r="H10" s="58"/>
       <c r="I10" s="58" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="J10" s="62"/>
       <c r="K10" s="59"/>
@@ -2942,10 +3290,10 @@
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
       <c r="E11" s="59" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G11" s="87">
         <v>0</v>
@@ -2954,19 +3302,19 @@
         <v>23460</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J11" s="62"/>
       <c r="K11" s="59"/>
       <c r="L11" s="59" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M11" s="59"/>
       <c r="N11" s="59" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O11" s="59" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="P11" s="59"/>
       <c r="Q11" s="59"/>
@@ -2978,10 +3326,10 @@
       <c r="C12" s="59"/>
       <c r="D12" s="85"/>
       <c r="E12" s="59" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F12" s="90" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G12" s="86"/>
       <c r="H12" s="91">
@@ -2993,14 +3341,14 @@
         <v>0.19</v>
       </c>
       <c r="L12" s="59" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M12" s="59"/>
       <c r="N12" s="59" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O12" s="59" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="P12" s="59"/>
       <c r="Q12" s="59"/>
@@ -3012,10 +3360,10 @@
       <c r="C13" s="59"/>
       <c r="D13" s="85"/>
       <c r="E13" s="59" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F13" s="92" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G13" s="86"/>
       <c r="H13" s="58">
@@ -3027,14 +3375,14 @@
         <v>0.77</v>
       </c>
       <c r="L13" s="59" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M13" s="59"/>
       <c r="N13" s="59" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O13" s="59" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="P13" s="59"/>
       <c r="Q13" s="59"/>
@@ -3042,58 +3390,58 @@
     </row>
     <row r="14" spans="1:19" ht="137.25">
       <c r="A14" s="84" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="85">
         <v>1780000</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F14" s="93" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G14" s="86"/>
       <c r="H14" s="94">
         <v>16929</v>
       </c>
       <c r="I14" s="58" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J14" s="62"/>
       <c r="K14" s="59"/>
       <c r="L14" s="59" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M14" s="59"/>
       <c r="N14" s="59" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O14" s="59" t="s">
         <v>33</v>
       </c>
       <c r="P14" s="59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="59"/>
       <c r="R14" s="59"/>
     </row>
     <row r="15" spans="1:19" ht="106.5">
       <c r="A15" s="59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
       <c r="D15" s="85"/>
       <c r="E15" s="59" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G15" s="86"/>
       <c r="H15" s="89">
@@ -3105,17 +3453,17 @@
         <v>0.51</v>
       </c>
       <c r="L15" s="59" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M15" s="59"/>
       <c r="N15" s="59" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O15" s="59" t="s">
         <v>33</v>
       </c>
       <c r="P15" s="59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q15" s="59"/>
       <c r="R15" s="59"/>
@@ -3126,10 +3474,10 @@
       <c r="C16" s="59"/>
       <c r="D16" s="85"/>
       <c r="E16" s="59" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F16" s="95" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G16" s="86"/>
       <c r="H16" s="88">
@@ -3139,17 +3487,17 @@
       <c r="J16" s="62"/>
       <c r="K16" s="59"/>
       <c r="L16" s="59" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M16" s="59"/>
       <c r="N16" s="59" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O16" s="59" t="s">
         <v>33</v>
       </c>
       <c r="P16" s="59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="59"/>
       <c r="R16" s="59"/>
@@ -3161,7 +3509,7 @@
       <c r="D17" s="85"/>
       <c r="E17" s="59"/>
       <c r="F17" s="95" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G17" s="87"/>
       <c r="H17" s="88"/>
@@ -3169,17 +3517,17 @@
       <c r="J17" s="62"/>
       <c r="K17" s="59"/>
       <c r="L17" s="59" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M17" s="59"/>
       <c r="N17" s="59" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O17" s="59" t="s">
         <v>33</v>
       </c>
       <c r="P17" s="59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="59"/>
       <c r="R17" s="59"/>
@@ -3191,7 +3539,7 @@
       <c r="D18" s="85"/>
       <c r="E18" s="59"/>
       <c r="F18" s="96" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G18" s="86"/>
       <c r="H18" s="88"/>
@@ -3199,17 +3547,17 @@
       <c r="J18" s="62"/>
       <c r="K18" s="59"/>
       <c r="L18" s="59" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M18" s="59"/>
       <c r="N18" s="59" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O18" s="59" t="s">
         <v>33</v>
       </c>
       <c r="P18" s="59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q18" s="59"/>
       <c r="R18" s="59"/>
@@ -3217,17 +3565,17 @@
     <row r="19" spans="1:18">
       <c r="A19" s="59"/>
       <c r="B19" s="59" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="85">
         <v>1346173</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F19" s="97" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G19" s="86"/>
       <c r="H19" s="58">
@@ -3237,97 +3585,97 @@
       <c r="J19" s="62"/>
       <c r="K19" s="59"/>
       <c r="L19" s="59" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M19" s="59"/>
       <c r="N19" s="59" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O19" s="59" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="P19" s="59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q19" s="59"/>
       <c r="R19" s="59"/>
     </row>
     <row r="20" spans="1:18" ht="30.75">
       <c r="A20" s="84" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="85">
         <v>200000</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F20" s="58" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G20" s="86"/>
       <c r="H20" s="58">
         <v>200</v>
       </c>
       <c r="I20" s="58" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J20" s="62"/>
       <c r="K20" s="59"/>
       <c r="L20" s="59" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M20" s="59"/>
       <c r="N20" s="59" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O20" s="59" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="P20" s="59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q20" s="59"/>
       <c r="R20" s="59"/>
     </row>
     <row r="21" spans="1:18" ht="137.25">
       <c r="A21" s="59" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
       <c r="D21" s="85"/>
       <c r="E21" s="59" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F21" s="58" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G21" s="86"/>
       <c r="H21" s="58">
         <v>400</v>
       </c>
       <c r="I21" s="58" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J21" s="62"/>
       <c r="K21" s="59"/>
       <c r="L21" s="59" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M21" s="59"/>
       <c r="N21" s="59" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O21" s="59" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="P21" s="59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q21" s="59"/>
       <c r="R21" s="59"/>
@@ -3339,7 +3687,7 @@
       <c r="D22" s="85"/>
       <c r="E22" s="59"/>
       <c r="F22" s="58" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G22" s="86"/>
       <c r="H22" s="58"/>
@@ -3347,17 +3695,17 @@
       <c r="J22" s="62"/>
       <c r="K22" s="59"/>
       <c r="L22" s="59" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M22" s="59"/>
       <c r="N22" s="59" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O22" s="59" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="P22" s="59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="59"/>
       <c r="R22" s="59"/>
@@ -3369,7 +3717,7 @@
       <c r="D23" s="85"/>
       <c r="E23" s="59"/>
       <c r="F23" s="58" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G23" s="86"/>
       <c r="H23" s="58"/>
@@ -3377,17 +3725,17 @@
       <c r="J23" s="70"/>
       <c r="K23" s="59"/>
       <c r="L23" s="59" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M23" s="59"/>
       <c r="N23" s="59" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O23" s="59" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="P23" s="59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q23" s="59"/>
       <c r="R23" s="59"/>
@@ -3399,7 +3747,7 @@
       <c r="D24" s="85"/>
       <c r="E24" s="59"/>
       <c r="F24" s="58" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G24" s="86"/>
       <c r="H24" s="58"/>
@@ -3407,17 +3755,17 @@
       <c r="J24" s="70"/>
       <c r="K24" s="59"/>
       <c r="L24" s="59" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M24" s="59"/>
       <c r="N24" s="59" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O24" s="59" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="P24" s="59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q24" s="59"/>
       <c r="R24" s="59"/>
@@ -3537,103 +3885,103 @@
         <v>8</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15">
       <c r="A2" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="107" t="s">
-        <v>19</v>
+        <v>85</v>
+      </c>
+      <c r="B2" s="118" t="s">
+        <v>21</v>
       </c>
       <c r="D2" s="3">
         <v>8498746</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="19">
         <v>330000</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:17" ht="91.5">
       <c r="A3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="107"/>
+        <v>26</v>
+      </c>
+      <c r="B3" s="118"/>
       <c r="C3"/>
       <c r="D3" s="6"/>
       <c r="E3" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:17" ht="229.5">
       <c r="A4"/>
-      <c r="B4" s="107"/>
+      <c r="B4" s="118"/>
       <c r="C4"/>
       <c r="D4" s="6"/>
       <c r="F4" s="20" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="19" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J4" s="36"/>
     </row>
     <row r="5" spans="1:17" ht="121.5">
       <c r="A5"/>
-      <c r="B5" s="107"/>
+      <c r="B5" s="118"/>
       <c r="C5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:17" ht="15">
       <c r="A6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="108" t="s">
-        <v>38</v>
+        <v>89</v>
+      </c>
+      <c r="B6" s="119" t="s">
+        <v>42</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="8">
@@ -3644,69 +3992,69 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="11" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:17" ht="45.75">
       <c r="A7" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="B7" s="119"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="22" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="22" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J7" s="36"/>
     </row>
     <row r="8" spans="1:17" ht="76.5">
       <c r="A8" s="8"/>
-      <c r="B8" s="108"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="21" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="19" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J8" s="36"/>
     </row>
     <row r="9" spans="1:17" ht="137.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="108"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="21" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="19" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J9" s="36"/>
     </row>
@@ -3716,16 +4064,16 @@
     </row>
     <row r="11" spans="1:17" ht="106.5">
       <c r="A11" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="109" t="s">
-        <v>49</v>
+        <v>95</v>
+      </c>
+      <c r="B11" s="120" t="s">
+        <v>56</v>
       </c>
       <c r="D11" s="3">
         <v>6000000</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="G11" s="25">
         <v>0</v>
@@ -3734,20 +4082,20 @@
         <v>7</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="60.75">
-      <c r="B12" s="109"/>
+      <c r="B12" s="120"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G12" s="25">
         <v>0</v>
@@ -3756,17 +4104,17 @@
         <v>23460</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J12" s="37"/>
       <c r="Q12" s="42" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="45.75">
-      <c r="B13" s="109"/>
+      <c r="B13" s="120"/>
       <c r="F13" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="G13" s="41">
         <v>0</v>
@@ -3775,29 +4123,29 @@
         <v>21</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="46.5">
-      <c r="B14" s="109"/>
+      <c r="B14" s="120"/>
       <c r="F14" s="31" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="J14" s="37"/>
     </row>
     <row r="15" spans="1:17" ht="46.5">
-      <c r="B15" s="109"/>
+      <c r="B15" s="120"/>
       <c r="E15" s="3" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="J15" s="37"/>
     </row>
@@ -3808,127 +4156,127 @@
     </row>
     <row r="17" spans="1:10" ht="137.25">
       <c r="A17" s="33" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D17" s="5">
         <v>1780000</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10" ht="106.5">
       <c r="A18" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10" ht="76.5">
       <c r="F19" s="27" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="J19" s="37"/>
     </row>
     <row r="20" spans="1:10" ht="30.75">
       <c r="F20" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="38" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:10" ht="137.25">
       <c r="F21" s="53" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10" ht="30.75">
-      <c r="B22" s="108" t="s">
-        <v>70</v>
+      <c r="B22" s="119" t="s">
+        <v>74</v>
       </c>
       <c r="D22" s="5">
         <v>1346173</v>
       </c>
       <c r="F22" s="30"/>
       <c r="H22" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="I22" s="28"/>
       <c r="J22" s="37"/>
     </row>
     <row r="23" spans="1:10" ht="15">
-      <c r="B23" s="108"/>
+      <c r="B23" s="119"/>
       <c r="J23" s="37"/>
     </row>
     <row r="24" spans="1:10" ht="15">
-      <c r="B24" s="108"/>
+      <c r="B24" s="119"/>
       <c r="D24"/>
       <c r="E24" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="J24" s="37"/>
     </row>
     <row r="25" spans="1:10" ht="15">
-      <c r="B25" s="108"/>
+      <c r="B25" s="119"/>
       <c r="D25"/>
       <c r="E25" s="3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="J25" s="37"/>
     </row>
     <row r="26" spans="1:10" ht="15">
-      <c r="B26" s="108"/>
+      <c r="B26" s="119"/>
       <c r="D26"/>
       <c r="E26" s="3" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="J26" s="37"/>
     </row>
     <row r="27" spans="1:10" ht="15">
-      <c r="B27" s="108"/>
+      <c r="B27" s="119"/>
       <c r="D27"/>
       <c r="E27" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="J27" s="37"/>
     </row>
@@ -3938,58 +4286,58 @@
     </row>
     <row r="29" spans="1:10" ht="45.75">
       <c r="A29" s="33" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D29" s="5">
         <v>200000</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J29" s="37"/>
     </row>
     <row r="30" spans="1:10" ht="137.25">
       <c r="A30" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J30" s="37"/>
     </row>
     <row r="31" spans="1:10" ht="137.25">
       <c r="F31" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J31" s="37"/>
     </row>
     <row r="32" spans="1:10" ht="45.75">
       <c r="F32" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J32" s="36"/>
     </row>
     <row r="33" spans="4:10" ht="76.5">
       <c r="F33" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J33" s="36"/>
     </row>
@@ -4097,7 +4445,7 @@
     <row r="1" spans="1:5" ht="14.45"/>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4111,395 +4459,589 @@
     </row>
     <row r="5" spans="1:5" ht="32.25">
       <c r="A5" s="43" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.75">
       <c r="A6" s="45" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30.75">
       <c r="A7" s="45" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="45" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="45" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="45" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="45" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="45" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="45" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="45" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="45" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="45" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="45" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="45" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="45" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="45" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="51" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="51" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="51" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="51" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="51" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="51" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="110" t="s">
-        <v>203</v>
-      </c>
-      <c r="B27" s="111"/>
-      <c r="C27" s="112"/>
+      <c r="A27" s="121" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="122"/>
+      <c r="C27" s="123"/>
       <c r="D27" s="52" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A27:C27"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BDC043-7493-4060-A5DA-A15E1BA49C8A}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="109" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="125" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="125" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="109" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="109" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="109" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="125" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="109" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="125" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="109" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="125" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="126" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="125" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="126" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="125" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="109" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="125" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="126" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" s="126" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="125" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="126" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="125" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="126" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="109" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="125" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" s="126" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="125" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="126" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="125" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="126" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="125" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="127" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="125" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" s="126" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/01_Input/00_CO Validation/Mali - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Mali - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam.coulibaly\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="425" documentId="13_ncr:1_{A2F0156B-761F-4243-96E8-3CD598E6E0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F109E53C-6B04-49F6-B03E-61EE67A67BAC}"/>
+  <xr:revisionPtr revIDLastSave="427" documentId="13_ncr:1_{A2F0156B-761F-4243-96E8-3CD598E6E0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{926F4618-5F02-4AAE-8254-4BB0109441AB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="253">
   <si>
     <t>Project ID</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Close the gap on energy access</t>
-  </si>
-  <si>
-    <t>Policy and Regulatory Framework</t>
   </si>
   <si>
     <t>1 an inclusive national coordination platform for off-grid clean energy is established and operational</t>
@@ -1563,6 +1560,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1579,9 +1579,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1901,8 +1898,8 @@
   <dimension ref="A1:U68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="L2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1:AD1048576"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2000,7 +1997,7 @@
       <c r="B2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="118" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="59">
@@ -2044,19 +2041,19 @@
       <c r="C3" s="63"/>
       <c r="D3" s="64"/>
       <c r="E3" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="G3" s="60" t="s">
         <v>30</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>31</v>
       </c>
       <c r="H3" s="60">
         <v>1</v>
       </c>
       <c r="I3" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="67"/>
       <c r="K3" s="59"/>
@@ -2068,18 +2065,18 @@
         <v>28</v>
       </c>
       <c r="O3" s="107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P3" s="107"/>
       <c r="Q3" s="107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R3" s="107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S3" s="116"/>
       <c r="T3" s="107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U3" s="116"/>
     </row>
@@ -2090,14 +2087,14 @@
       <c r="D4" s="64"/>
       <c r="E4" s="59"/>
       <c r="F4" s="65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="60">
         <v>1</v>
       </c>
       <c r="I4" s="69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" s="70"/>
       <c r="K4" s="59"/>
@@ -2122,19 +2119,19 @@
       <c r="C5" s="63"/>
       <c r="D5" s="64"/>
       <c r="E5" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="61" t="s">
         <v>38</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>39</v>
       </c>
       <c r="H5" s="60">
         <v>30000</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="62"/>
       <c r="K5" s="79">
@@ -2157,29 +2154,29 @@
     </row>
     <row r="6" spans="1:21" ht="45.75">
       <c r="A6" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="C6" s="73" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>43</v>
       </c>
       <c r="D6" s="72">
         <v>1500000</v>
       </c>
       <c r="E6" s="78" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F6" s="61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="74"/>
       <c r="H6" s="78">
         <v>1</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6" s="70"/>
       <c r="K6" s="79">
@@ -2193,21 +2190,21 @@
         <v>28</v>
       </c>
       <c r="O6" s="107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" s="107"/>
       <c r="Q6" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="107" t="s">
         <v>47</v>
-      </c>
-      <c r="R6" s="107" t="s">
-        <v>48</v>
       </c>
       <c r="S6" s="116"/>
       <c r="T6" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="116" t="s">
         <v>49</v>
-      </c>
-      <c r="U6" s="116" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="45.75">
@@ -2216,17 +2213,17 @@
       <c r="C7" s="73"/>
       <c r="D7" s="77"/>
       <c r="E7" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="60" t="s">
         <v>51</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>52</v>
       </c>
       <c r="G7" s="74"/>
       <c r="H7" s="60">
         <v>1000</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7" s="70"/>
       <c r="K7" s="79">
@@ -2256,14 +2253,14 @@
         <v>23</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="74"/>
       <c r="H8" s="60">
         <v>1000</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="70"/>
       <c r="K8" s="79">
@@ -2289,17 +2286,17 @@
         <v>121587</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="59">
         <v>6000000</v>
       </c>
       <c r="E9" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="58" t="s">
         <v>57</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>58</v>
       </c>
       <c r="G9" s="87">
         <v>0</v>
@@ -2308,7 +2305,7 @@
         <v>23460</v>
       </c>
       <c r="I9" s="58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J9" s="62"/>
       <c r="K9" s="59"/>
@@ -2333,10 +2330,10 @@
       <c r="C10" s="59"/>
       <c r="D10" s="85"/>
       <c r="E10" s="59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="86"/>
       <c r="H10" s="91">
@@ -2368,7 +2365,7 @@
       <c r="C11" s="59"/>
       <c r="D11" s="85"/>
       <c r="E11" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="92" t="s">
         <v>24</v>
@@ -2402,27 +2399,27 @@
         <v>129014</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="59"/>
       <c r="D12" s="85">
         <v>1780000</v>
       </c>
       <c r="E12" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="93" t="s">
         <v>63</v>
-      </c>
-      <c r="F12" s="93" t="s">
-        <v>64</v>
       </c>
       <c r="G12" s="86"/>
       <c r="H12" s="94">
         <v>16929</v>
       </c>
       <c r="I12" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="62" t="s">
         <v>65</v>
-      </c>
-      <c r="J12" s="62" t="s">
-        <v>66</v>
       </c>
       <c r="K12" s="59"/>
       <c r="L12" s="114" t="s">
@@ -2434,7 +2431,7 @@
       </c>
       <c r="O12" s="107"/>
       <c r="P12" s="107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="107"/>
       <c r="R12" s="107"/>
@@ -2448,10 +2445,10 @@
       <c r="C13" s="59"/>
       <c r="D13" s="85"/>
       <c r="E13" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="86"/>
       <c r="H13" s="89">
@@ -2471,12 +2468,12 @@
       </c>
       <c r="O13" s="107"/>
       <c r="P13" s="107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="107"/>
       <c r="R13" s="107"/>
       <c r="S13" s="116" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T13" s="107"/>
       <c r="U13" s="116"/>
@@ -2487,10 +2484,10 @@
       <c r="C14" s="59"/>
       <c r="D14" s="85"/>
       <c r="E14" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="95" t="s">
         <v>70</v>
-      </c>
-      <c r="F14" s="95" t="s">
-        <v>71</v>
       </c>
       <c r="G14" s="86"/>
       <c r="H14" s="88">
@@ -2508,7 +2505,7 @@
       </c>
       <c r="O14" s="107"/>
       <c r="P14" s="107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="107"/>
       <c r="R14" s="107"/>
@@ -2523,7 +2520,7 @@
       <c r="D15" s="85"/>
       <c r="E15" s="100"/>
       <c r="F15" s="101" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="102"/>
       <c r="H15" s="103"/>
@@ -2539,7 +2536,7 @@
       </c>
       <c r="O15" s="107"/>
       <c r="P15" s="107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q15" s="107"/>
       <c r="R15" s="107"/>
@@ -2554,7 +2551,7 @@
       <c r="D16" s="85"/>
       <c r="E16" s="100"/>
       <c r="F16" s="104" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" s="105"/>
       <c r="H16" s="103"/>
@@ -2570,7 +2567,7 @@
       </c>
       <c r="O16" s="107"/>
       <c r="P16" s="107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="107"/>
       <c r="R16" s="107"/>
@@ -2581,14 +2578,14 @@
     <row r="17" spans="1:21" ht="45.75">
       <c r="A17" s="59"/>
       <c r="B17" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="85">
         <v>1346173</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="97" t="s">
         <v>24</v>
@@ -2609,7 +2606,7 @@
       </c>
       <c r="O17" s="107"/>
       <c r="P17" s="107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="107"/>
       <c r="R17" s="107"/>
@@ -2622,27 +2619,27 @@
         <v>124853</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="85">
         <v>200000</v>
       </c>
       <c r="E18" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="58" t="s">
         <v>76</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>77</v>
       </c>
       <c r="G18" s="86"/>
       <c r="H18" s="58">
         <v>200</v>
       </c>
       <c r="I18" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="117" t="s">
         <v>78</v>
-      </c>
-      <c r="J18" s="117" t="s">
-        <v>79</v>
       </c>
       <c r="K18" s="59"/>
       <c r="L18" s="114" t="s">
@@ -2654,7 +2651,7 @@
       </c>
       <c r="O18" s="107"/>
       <c r="P18" s="107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q18" s="107"/>
       <c r="R18" s="107"/>
@@ -2668,7 +2665,7 @@
       <c r="C19" s="59"/>
       <c r="D19" s="85"/>
       <c r="E19" s="59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" s="58" t="s">
         <v>24</v>
@@ -2678,7 +2675,7 @@
         <v>400</v>
       </c>
       <c r="I19" s="58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J19" s="62"/>
       <c r="K19" s="59"/>
@@ -2691,7 +2688,7 @@
       </c>
       <c r="O19" s="107"/>
       <c r="P19" s="107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="107"/>
       <c r="R19" s="107"/>
@@ -2706,7 +2703,7 @@
       <c r="D20" s="85"/>
       <c r="E20" s="59"/>
       <c r="F20" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="86"/>
       <c r="H20" s="58"/>
@@ -2722,7 +2719,7 @@
       </c>
       <c r="O20" s="107"/>
       <c r="P20" s="107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q20" s="107"/>
       <c r="R20" s="107"/>
@@ -2737,7 +2734,7 @@
       <c r="D21" s="85"/>
       <c r="E21" s="59"/>
       <c r="F21" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" s="86"/>
       <c r="H21" s="58"/>
@@ -2753,7 +2750,7 @@
       </c>
       <c r="O21" s="107"/>
       <c r="P21" s="107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q21" s="107"/>
       <c r="R21" s="107"/>
@@ -2768,7 +2765,7 @@
       <c r="D22" s="85"/>
       <c r="E22" s="59"/>
       <c r="F22" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G22" s="86"/>
       <c r="H22" s="58"/>
@@ -2784,7 +2781,7 @@
       </c>
       <c r="O22" s="107"/>
       <c r="P22" s="107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="107"/>
       <c r="R22" s="107"/>
@@ -2944,7 +2941,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M1" s="56" t="s">
         <v>12</v>
@@ -2968,7 +2965,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="58" t="s">
         <v>21</v>
@@ -2978,7 +2975,7 @@
         <v>8498746</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" s="60" t="s">
         <v>24</v>
@@ -2997,7 +2994,7 @@
       </c>
       <c r="M2" s="59"/>
       <c r="N2" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O2" s="59" t="s">
         <v>23</v>
@@ -3014,19 +3011,19 @@
       <c r="C3" s="63"/>
       <c r="D3" s="64"/>
       <c r="E3" s="59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="60" t="s">
         <v>30</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>31</v>
       </c>
       <c r="H3" s="60">
         <v>1</v>
       </c>
       <c r="I3" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="67"/>
       <c r="K3" s="59"/>
@@ -3035,14 +3032,14 @@
       </c>
       <c r="M3" s="59"/>
       <c r="N3" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O3" s="59" t="s">
         <v>23</v>
       </c>
       <c r="P3" s="59"/>
       <c r="Q3" s="59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R3" s="59" t="s">
         <v>23</v>
@@ -3055,14 +3052,14 @@
       <c r="D4" s="64"/>
       <c r="E4" s="59"/>
       <c r="F4" s="65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="60">
         <v>1</v>
       </c>
       <c r="I4" s="69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" s="70"/>
       <c r="K4" s="59"/>
@@ -3082,17 +3079,17 @@
       <c r="C5" s="63"/>
       <c r="D5" s="64"/>
       <c r="E5" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="61" t="s">
         <v>38</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>39</v>
       </c>
       <c r="H5" s="60"/>
       <c r="I5" s="71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="62"/>
       <c r="K5" s="59"/>
@@ -3101,10 +3098,10 @@
       </c>
       <c r="M5" s="59"/>
       <c r="N5" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O5" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P5" s="59"/>
       <c r="Q5" s="59"/>
@@ -3112,10 +3109,10 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="73"/>
       <c r="D6" s="72">
@@ -3126,7 +3123,7 @@
       <c r="G6" s="74"/>
       <c r="H6" s="74"/>
       <c r="I6" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J6" s="70"/>
       <c r="K6" s="59"/>
@@ -3142,23 +3139,23 @@
     </row>
     <row r="7" spans="1:19" ht="45.75">
       <c r="A7" s="76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="73"/>
       <c r="D7" s="77"/>
       <c r="E7" s="78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="74"/>
       <c r="H7" s="78">
         <v>1</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="70"/>
       <c r="K7" s="79">
@@ -3169,17 +3166,17 @@
       </c>
       <c r="M7" s="59"/>
       <c r="N7" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O7" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P7" s="59"/>
       <c r="Q7" s="59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R7" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="45.75">
@@ -3188,17 +3185,17 @@
       <c r="C8" s="73"/>
       <c r="D8" s="77"/>
       <c r="E8" s="80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="74"/>
       <c r="H8" s="60">
         <v>1000</v>
       </c>
       <c r="I8" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" s="70"/>
       <c r="K8" s="79">
@@ -3209,10 +3206,10 @@
       </c>
       <c r="M8" s="59"/>
       <c r="N8" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O8" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P8" s="59"/>
       <c r="Q8" s="59"/>
@@ -3224,17 +3221,17 @@
       <c r="C9" s="82"/>
       <c r="D9" s="83"/>
       <c r="E9" s="80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="74"/>
       <c r="H9" s="60">
         <v>1000</v>
       </c>
       <c r="I9" s="75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J9" s="70"/>
       <c r="K9" s="79">
@@ -3245,10 +3242,10 @@
       </c>
       <c r="M9" s="59"/>
       <c r="N9" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O9" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P9" s="59"/>
       <c r="Q9" s="59"/>
@@ -3256,10 +3253,10 @@
     </row>
     <row r="10" spans="1:19" ht="106.5">
       <c r="A10" s="84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="59">
@@ -3272,7 +3269,7 @@
       </c>
       <c r="H10" s="58"/>
       <c r="I10" s="58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J10" s="62"/>
       <c r="K10" s="59"/>
@@ -3290,10 +3287,10 @@
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
       <c r="E11" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="87">
         <v>0</v>
@@ -3302,7 +3299,7 @@
         <v>23460</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" s="62"/>
       <c r="K11" s="59"/>
@@ -3311,10 +3308,10 @@
       </c>
       <c r="M11" s="59"/>
       <c r="N11" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O11" s="59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P11" s="59"/>
       <c r="Q11" s="59"/>
@@ -3326,10 +3323,10 @@
       <c r="C12" s="59"/>
       <c r="D12" s="85"/>
       <c r="E12" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" s="90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="86"/>
       <c r="H12" s="91">
@@ -3345,10 +3342,10 @@
       </c>
       <c r="M12" s="59"/>
       <c r="N12" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O12" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P12" s="59"/>
       <c r="Q12" s="59"/>
@@ -3360,7 +3357,7 @@
       <c r="C13" s="59"/>
       <c r="D13" s="85"/>
       <c r="E13" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="92" t="s">
         <v>24</v>
@@ -3379,10 +3376,10 @@
       </c>
       <c r="M13" s="59"/>
       <c r="N13" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O13" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P13" s="59"/>
       <c r="Q13" s="59"/>
@@ -3390,58 +3387,58 @@
     </row>
     <row r="14" spans="1:19" ht="137.25">
       <c r="A14" s="84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="85">
         <v>1780000</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="93" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="86"/>
       <c r="H14" s="94">
         <v>16929</v>
       </c>
       <c r="I14" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" s="62"/>
       <c r="K14" s="59"/>
       <c r="L14" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M14" s="59"/>
       <c r="N14" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O14" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P14" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="59"/>
       <c r="R14" s="59"/>
     </row>
     <row r="15" spans="1:19" ht="106.5">
       <c r="A15" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
       <c r="D15" s="85"/>
       <c r="E15" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="86"/>
       <c r="H15" s="89">
@@ -3453,17 +3450,17 @@
         <v>0.51</v>
       </c>
       <c r="L15" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M15" s="59"/>
       <c r="N15" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O15" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P15" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q15" s="59"/>
       <c r="R15" s="59"/>
@@ -3474,10 +3471,10 @@
       <c r="C16" s="59"/>
       <c r="D16" s="85"/>
       <c r="E16" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" s="95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="86"/>
       <c r="H16" s="88">
@@ -3487,17 +3484,17 @@
       <c r="J16" s="62"/>
       <c r="K16" s="59"/>
       <c r="L16" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M16" s="59"/>
       <c r="N16" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O16" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P16" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="59"/>
       <c r="R16" s="59"/>
@@ -3509,7 +3506,7 @@
       <c r="D17" s="85"/>
       <c r="E17" s="59"/>
       <c r="F17" s="95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="87"/>
       <c r="H17" s="88"/>
@@ -3517,17 +3514,17 @@
       <c r="J17" s="62"/>
       <c r="K17" s="59"/>
       <c r="L17" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M17" s="59"/>
       <c r="N17" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O17" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P17" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="59"/>
       <c r="R17" s="59"/>
@@ -3539,7 +3536,7 @@
       <c r="D18" s="85"/>
       <c r="E18" s="59"/>
       <c r="F18" s="96" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" s="86"/>
       <c r="H18" s="88"/>
@@ -3547,17 +3544,17 @@
       <c r="J18" s="62"/>
       <c r="K18" s="59"/>
       <c r="L18" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M18" s="59"/>
       <c r="N18" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O18" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q18" s="59"/>
       <c r="R18" s="59"/>
@@ -3565,14 +3562,14 @@
     <row r="19" spans="1:18">
       <c r="A19" s="59"/>
       <c r="B19" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="85">
         <v>1346173</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="97" t="s">
         <v>24</v>
@@ -3585,72 +3582,72 @@
       <c r="J19" s="62"/>
       <c r="K19" s="59"/>
       <c r="L19" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M19" s="59"/>
       <c r="N19" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O19" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P19" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="59"/>
       <c r="R19" s="59"/>
     </row>
     <row r="20" spans="1:18" ht="30.75">
       <c r="A20" s="84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="85">
         <v>200000</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" s="86"/>
       <c r="H20" s="58">
         <v>200</v>
       </c>
       <c r="I20" s="58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J20" s="62"/>
       <c r="K20" s="59"/>
       <c r="L20" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M20" s="59"/>
       <c r="N20" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O20" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P20" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q20" s="59"/>
       <c r="R20" s="59"/>
     </row>
     <row r="21" spans="1:18" ht="137.25">
       <c r="A21" s="59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
       <c r="D21" s="85"/>
       <c r="E21" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F21" s="58" t="s">
         <v>24</v>
@@ -3660,22 +3657,22 @@
         <v>400</v>
       </c>
       <c r="I21" s="58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J21" s="62"/>
       <c r="K21" s="59"/>
       <c r="L21" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M21" s="59"/>
       <c r="N21" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O21" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P21" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q21" s="59"/>
       <c r="R21" s="59"/>
@@ -3687,7 +3684,7 @@
       <c r="D22" s="85"/>
       <c r="E22" s="59"/>
       <c r="F22" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="86"/>
       <c r="H22" s="58"/>
@@ -3695,17 +3692,17 @@
       <c r="J22" s="62"/>
       <c r="K22" s="59"/>
       <c r="L22" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M22" s="59"/>
       <c r="N22" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O22" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P22" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="59"/>
       <c r="R22" s="59"/>
@@ -3717,7 +3714,7 @@
       <c r="D23" s="85"/>
       <c r="E23" s="59"/>
       <c r="F23" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G23" s="86"/>
       <c r="H23" s="58"/>
@@ -3725,17 +3722,17 @@
       <c r="J23" s="70"/>
       <c r="K23" s="59"/>
       <c r="L23" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M23" s="59"/>
       <c r="N23" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O23" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P23" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q23" s="59"/>
       <c r="R23" s="59"/>
@@ -3747,7 +3744,7 @@
       <c r="D24" s="85"/>
       <c r="E24" s="59"/>
       <c r="F24" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G24" s="86"/>
       <c r="H24" s="58"/>
@@ -3755,17 +3752,17 @@
       <c r="J24" s="70"/>
       <c r="K24" s="59"/>
       <c r="L24" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M24" s="59"/>
       <c r="N24" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O24" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P24" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q24" s="59"/>
       <c r="R24" s="59"/>
@@ -3885,24 +3882,24 @@
         <v>8</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15">
       <c r="A2" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="118" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="119" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3">
         <v>8498746</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="19">
@@ -3917,71 +3914,71 @@
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="118"/>
+      <c r="B3" s="119"/>
       <c r="C3"/>
       <c r="D3" s="6"/>
       <c r="E3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="29" t="s">
         <v>31</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>32</v>
       </c>
       <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:17" ht="229.5">
       <c r="A4"/>
-      <c r="B4" s="118"/>
+      <c r="B4" s="119"/>
       <c r="C4"/>
       <c r="D4" s="6"/>
       <c r="F4" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" s="36"/>
     </row>
     <row r="5" spans="1:17" ht="121.5">
       <c r="A5"/>
-      <c r="B5" s="118"/>
+      <c r="B5" s="119"/>
       <c r="C5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="H5" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="55" t="s">
         <v>107</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>108</v>
       </c>
       <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:17" ht="15">
       <c r="A6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="119" t="s">
-        <v>42</v>
+        <v>88</v>
+      </c>
+      <c r="B6" s="120" t="s">
+        <v>41</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="8">
@@ -3992,69 +3989,69 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:17" ht="45.75">
       <c r="A7" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="119"/>
+        <v>90</v>
+      </c>
+      <c r="B7" s="120"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="36"/>
     </row>
     <row r="8" spans="1:17" ht="76.5">
       <c r="A8" s="8"/>
-      <c r="B8" s="119"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" s="36"/>
     </row>
     <row r="9" spans="1:17" ht="137.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="119"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J9" s="36"/>
     </row>
@@ -4064,16 +4061,16 @@
     </row>
     <row r="11" spans="1:17" ht="106.5">
       <c r="A11" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="120" t="s">
-        <v>56</v>
+        <v>94</v>
+      </c>
+      <c r="B11" s="121" t="s">
+        <v>55</v>
       </c>
       <c r="D11" s="3">
         <v>6000000</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11" s="25">
         <v>0</v>
@@ -4082,20 +4079,20 @@
         <v>7</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="60.75">
-      <c r="B12" s="120"/>
+      <c r="B12" s="121"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="25">
         <v>0</v>
@@ -4104,17 +4101,17 @@
         <v>23460</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12" s="37"/>
       <c r="Q12" s="42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="45.75">
+      <c r="B13" s="121"/>
+      <c r="F13" s="2" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="45.75">
-      <c r="B13" s="120"/>
-      <c r="F13" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="G13" s="41">
         <v>0</v>
@@ -4123,29 +4120,29 @@
         <v>21</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="46.5">
-      <c r="B14" s="120"/>
+      <c r="B14" s="121"/>
       <c r="F14" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="37"/>
+    </row>
+    <row r="15" spans="1:17" ht="46.5">
+      <c r="B15" s="121"/>
+      <c r="E15" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="J14" s="37"/>
-    </row>
-    <row r="15" spans="1:17" ht="46.5">
-      <c r="B15" s="120"/>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="H15" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="J15" s="37"/>
     </row>
@@ -4156,127 +4153,127 @@
     </row>
     <row r="17" spans="1:10" ht="137.25">
       <c r="A17" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="5">
         <v>1780000</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10" ht="106.5">
       <c r="A18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10" ht="76.5">
       <c r="F19" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="38" t="s">
         <v>123</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>124</v>
       </c>
       <c r="J19" s="37"/>
     </row>
     <row r="20" spans="1:10" ht="30.75">
       <c r="F20" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:10" ht="137.25">
       <c r="F21" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="37"/>
+    </row>
+    <row r="22" spans="1:10" ht="30.75">
+      <c r="B22" s="120" t="s">
         <v>73</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="J21" s="37"/>
-    </row>
-    <row r="22" spans="1:10" ht="30.75">
-      <c r="B22" s="119" t="s">
-        <v>74</v>
       </c>
       <c r="D22" s="5">
         <v>1346173</v>
       </c>
       <c r="F22" s="30"/>
       <c r="H22" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I22" s="28"/>
       <c r="J22" s="37"/>
     </row>
     <row r="23" spans="1:10" ht="15">
-      <c r="B23" s="119"/>
+      <c r="B23" s="120"/>
       <c r="J23" s="37"/>
     </row>
     <row r="24" spans="1:10" ht="15">
-      <c r="B24" s="119"/>
+      <c r="B24" s="120"/>
       <c r="D24"/>
       <c r="E24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
         <v>128</v>
       </c>
-      <c r="F24" t="s">
-        <v>129</v>
-      </c>
       <c r="J24" s="37"/>
     </row>
     <row r="25" spans="1:10" ht="15">
-      <c r="B25" s="119"/>
+      <c r="B25" s="120"/>
       <c r="D25"/>
       <c r="E25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="J25" s="37"/>
     </row>
     <row r="26" spans="1:10" ht="15">
-      <c r="B26" s="119"/>
+      <c r="B26" s="120"/>
       <c r="D26"/>
       <c r="E26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="J26" s="37"/>
     </row>
     <row r="27" spans="1:10" ht="15">
-      <c r="B27" s="119"/>
+      <c r="B27" s="120"/>
       <c r="D27"/>
       <c r="E27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J27" s="37"/>
     </row>
@@ -4286,58 +4283,58 @@
     </row>
     <row r="29" spans="1:10" ht="45.75">
       <c r="A29" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="5">
         <v>200000</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="I29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J29" s="37"/>
     </row>
     <row r="30" spans="1:10" ht="137.25">
       <c r="A30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="J30" s="37"/>
     </row>
     <row r="31" spans="1:10" ht="137.25">
       <c r="F31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J31" s="37"/>
     </row>
     <row r="32" spans="1:10" ht="45.75">
       <c r="F32" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J32" s="36"/>
     </row>
     <row r="33" spans="4:10" ht="76.5">
       <c r="F33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J33" s="36"/>
     </row>
@@ -4445,7 +4442,7 @@
     <row r="1" spans="1:5" ht="14.45"/>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4459,389 +4456,389 @@
     </row>
     <row r="5" spans="1:5" ht="32.25">
       <c r="A5" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="C5" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="D5" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="E5" s="44" t="s">
         <v>143</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.75">
       <c r="A6" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="C6" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="D6" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="E6" s="48" t="s">
         <v>148</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30.75">
       <c r="A7" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="46" t="s">
-        <v>146</v>
-      </c>
       <c r="C7" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="E7" s="48" t="s">
         <v>151</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>146</v>
-      </c>
       <c r="C8" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="E8" s="48" t="s">
         <v>154</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="C9" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="D9" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="E9" s="48" t="s">
         <v>159</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>157</v>
-      </c>
       <c r="C10" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="E10" s="48" t="s">
         <v>162</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>157</v>
-      </c>
       <c r="C11" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="E11" s="48" t="s">
         <v>165</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="47" t="s">
+      <c r="D12" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="E12" s="48" t="s">
         <v>169</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="E13" s="48" t="s">
         <v>172</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="E14" s="48" t="s">
         <v>175</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="C15" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="D15" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="E15" s="48" t="s">
         <v>180</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="47" t="s">
-        <v>178</v>
-      </c>
       <c r="C16" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="E16" s="48" t="s">
         <v>183</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="47" t="s">
-        <v>178</v>
-      </c>
       <c r="C17" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="E17" s="48" t="s">
         <v>186</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" s="47" t="s">
+      <c r="D18" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="D18" s="48" t="s">
-        <v>190</v>
-      </c>
       <c r="E18" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="E19" s="48" t="s">
         <v>192</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C20" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="E20" s="48" t="s">
         <v>195</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="B21" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="47" t="s">
+      <c r="D21" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="E21" s="48" t="s">
         <v>199</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="E22" s="48" t="s">
         <v>202</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C23" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="E23" s="48" t="s">
         <v>205</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C24" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="E24" s="48" t="s">
         <v>208</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="B25" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="47" t="s">
+      <c r="D25" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="E25" s="48" t="s">
         <v>212</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C26" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="E26" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E26" s="48" t="s">
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="122" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="121" t="s">
+      <c r="B27" s="123"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="B27" s="122"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="52" t="s">
+      <c r="E27" s="52" t="s">
         <v>218</v>
-      </c>
-      <c r="E27" s="52" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4875,18 +4872,18 @@
     </row>
     <row r="2" spans="1:2" ht="45.75">
       <c r="A2" s="125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="125" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="109" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.75">
@@ -4894,135 +4891,135 @@
         <v>23</v>
       </c>
       <c r="B4" s="109" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.75">
       <c r="A5" s="125" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="109" t="s">
         <v>223</v>
-      </c>
-      <c r="B5" s="109" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="91.5">
       <c r="A6" s="125" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45.75">
       <c r="A7" s="125" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="109" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45.75">
       <c r="A8" s="125" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="109" t="s">
         <v>227</v>
-      </c>
-      <c r="B8" s="109" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45.75">
       <c r="A9" s="125" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="109" t="s">
         <v>229</v>
-      </c>
-      <c r="B9" s="109" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.75">
       <c r="A10" s="125" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="126" t="s">
         <v>231</v>
-      </c>
-      <c r="B10" s="126" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30.75">
       <c r="A11" s="125" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="126" t="s">
         <v>233</v>
-      </c>
-      <c r="B11" s="126" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75">
       <c r="A12" s="125" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="109" t="s">
         <v>235</v>
-      </c>
-      <c r="B12" s="109" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30.75">
       <c r="A13" s="125" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="126" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="125" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="126" t="s">
         <v>238</v>
-      </c>
-      <c r="B14" s="126" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30.75">
       <c r="A15" s="125" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="126" t="s">
         <v>240</v>
-      </c>
-      <c r="B15" s="126" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30.75">
       <c r="A16" s="125" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="126" t="s">
         <v>242</v>
-      </c>
-      <c r="B16" s="126" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30.75">
       <c r="A17" s="125" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="109" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75">
       <c r="A18" s="125" t="s">
+        <v>244</v>
+      </c>
+      <c r="B18" s="126" t="s">
         <v>245</v>
-      </c>
-      <c r="B18" s="126" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="76.5">
       <c r="A19" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" s="126" t="s">
         <v>247</v>
-      </c>
-      <c r="B19" s="126" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30.75">
       <c r="A20" s="125" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="126" t="s">
         <v>249</v>
-      </c>
-      <c r="B20" s="126" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45.75">
@@ -5030,15 +5027,15 @@
         <v>19</v>
       </c>
       <c r="B21" s="127" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30.75">
       <c r="A22" s="125" t="s">
+        <v>251</v>
+      </c>
+      <c r="B22" s="126" t="s">
         <v>252</v>
-      </c>
-      <c r="B22" s="126" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -5047,8 +5044,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -5073,6 +5079,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5152,6 +5159,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5295,15 +5307,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5353,11 +5356,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CEBF5D9-26ED-4E41-8B9E-551815C61387}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A9BB7FF-E22B-4D52-A2B4-6495F131E217}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/01_Input/00_CO Validation/Mali - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Mali - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam.coulibaly\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="427" documentId="13_ncr:1_{A2F0156B-761F-4243-96E8-3CD598E6E0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{926F4618-5F02-4AAE-8254-4BB0109441AB}"/>
+  <xr:revisionPtr revIDLastSave="429" documentId="13_ncr:1_{A2F0156B-761F-4243-96E8-3CD598E6E0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE11578C-1846-4092-9E00-DE90E3383FD2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="252">
   <si>
     <t>Project ID</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>The number of minigrids direct beneficiaries will derive from feasibility study. The feasibility study is not yet finalized. 6 mini power grids</t>
-  </si>
-  <si>
-    <t>130075 </t>
   </si>
   <si>
     <t>Femmes illuminant les chemins vers la paix</t>
@@ -1898,8 +1895,8 @@
   <dimension ref="A1:U68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1992,7 +1989,7 @@
     </row>
     <row r="2" spans="1:21" ht="45.75">
       <c r="A2" s="57">
-        <v>125788</v>
+        <v>134123</v>
       </c>
       <c r="B2" s="58" t="s">
         <v>21</v>
@@ -2153,14 +2150,14 @@
       <c r="U5" s="116"/>
     </row>
     <row r="6" spans="1:21" ht="45.75">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="72">
+        <v>125461</v>
+      </c>
+      <c r="B6" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="C6" s="73" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>42</v>
       </c>
       <c r="D6" s="72">
         <v>1500000</v>
@@ -2169,14 +2166,14 @@
         <v>19</v>
       </c>
       <c r="F6" s="61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="74"/>
       <c r="H6" s="78">
         <v>1</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6" s="70"/>
       <c r="K6" s="79">
@@ -2190,21 +2187,21 @@
         <v>28</v>
       </c>
       <c r="O6" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P6" s="107"/>
       <c r="Q6" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="107" t="s">
         <v>46</v>
-      </c>
-      <c r="R6" s="107" t="s">
-        <v>47</v>
       </c>
       <c r="S6" s="116"/>
       <c r="T6" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" s="116" t="s">
         <v>48</v>
-      </c>
-      <c r="U6" s="116" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="45.75">
@@ -2213,17 +2210,17 @@
       <c r="C7" s="73"/>
       <c r="D7" s="77"/>
       <c r="E7" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="60" t="s">
         <v>50</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>51</v>
       </c>
       <c r="G7" s="74"/>
       <c r="H7" s="60">
         <v>1000</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7" s="70"/>
       <c r="K7" s="79">
@@ -2253,14 +2250,14 @@
         <v>23</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="74"/>
       <c r="H8" s="60">
         <v>1000</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" s="70"/>
       <c r="K8" s="79">
@@ -2286,17 +2283,17 @@
         <v>121587</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="59">
         <v>6000000</v>
       </c>
       <c r="E9" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="58" t="s">
         <v>56</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>57</v>
       </c>
       <c r="G9" s="87">
         <v>0</v>
@@ -2305,7 +2302,7 @@
         <v>23460</v>
       </c>
       <c r="I9" s="58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" s="62"/>
       <c r="K9" s="59"/>
@@ -2330,10 +2327,10 @@
       <c r="C10" s="59"/>
       <c r="D10" s="85"/>
       <c r="E10" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="86"/>
       <c r="H10" s="91">
@@ -2365,7 +2362,7 @@
       <c r="C11" s="59"/>
       <c r="D11" s="85"/>
       <c r="E11" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="92" t="s">
         <v>24</v>
@@ -2399,27 +2396,27 @@
         <v>129014</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="59"/>
       <c r="D12" s="85">
         <v>1780000</v>
       </c>
       <c r="E12" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="93" t="s">
         <v>62</v>
-      </c>
-      <c r="F12" s="93" t="s">
-        <v>63</v>
       </c>
       <c r="G12" s="86"/>
       <c r="H12" s="94">
         <v>16929</v>
       </c>
       <c r="I12" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="62" t="s">
         <v>64</v>
-      </c>
-      <c r="J12" s="62" t="s">
-        <v>65</v>
       </c>
       <c r="K12" s="59"/>
       <c r="L12" s="114" t="s">
@@ -2431,7 +2428,7 @@
       </c>
       <c r="O12" s="107"/>
       <c r="P12" s="107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="107"/>
       <c r="R12" s="107"/>
@@ -2448,7 +2445,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="86"/>
       <c r="H13" s="89">
@@ -2468,12 +2465,12 @@
       </c>
       <c r="O13" s="107"/>
       <c r="P13" s="107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="107"/>
       <c r="R13" s="107"/>
       <c r="S13" s="116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T13" s="107"/>
       <c r="U13" s="116"/>
@@ -2484,10 +2481,10 @@
       <c r="C14" s="59"/>
       <c r="D14" s="85"/>
       <c r="E14" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="95" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" s="95" t="s">
-        <v>70</v>
       </c>
       <c r="G14" s="86"/>
       <c r="H14" s="88">
@@ -2505,7 +2502,7 @@
       </c>
       <c r="O14" s="107"/>
       <c r="P14" s="107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="107"/>
       <c r="R14" s="107"/>
@@ -2520,7 +2517,7 @@
       <c r="D15" s="85"/>
       <c r="E15" s="100"/>
       <c r="F15" s="101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="102"/>
       <c r="H15" s="103"/>
@@ -2536,7 +2533,7 @@
       </c>
       <c r="O15" s="107"/>
       <c r="P15" s="107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="107"/>
       <c r="R15" s="107"/>
@@ -2551,7 +2548,7 @@
       <c r="D16" s="85"/>
       <c r="E16" s="100"/>
       <c r="F16" s="104" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="105"/>
       <c r="H16" s="103"/>
@@ -2567,7 +2564,7 @@
       </c>
       <c r="O16" s="107"/>
       <c r="P16" s="107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="107"/>
       <c r="R16" s="107"/>
@@ -2578,14 +2575,14 @@
     <row r="17" spans="1:21" ht="45.75">
       <c r="A17" s="59"/>
       <c r="B17" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="85">
         <v>1346173</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="97" t="s">
         <v>24</v>
@@ -2606,7 +2603,7 @@
       </c>
       <c r="O17" s="107"/>
       <c r="P17" s="107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="107"/>
       <c r="R17" s="107"/>
@@ -2619,27 +2616,27 @@
         <v>124853</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="85">
         <v>200000</v>
       </c>
       <c r="E18" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="58" t="s">
         <v>75</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>76</v>
       </c>
       <c r="G18" s="86"/>
       <c r="H18" s="58">
         <v>200</v>
       </c>
       <c r="I18" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="117" t="s">
         <v>77</v>
-      </c>
-      <c r="J18" s="117" t="s">
-        <v>78</v>
       </c>
       <c r="K18" s="59"/>
       <c r="L18" s="114" t="s">
@@ -2651,7 +2648,7 @@
       </c>
       <c r="O18" s="107"/>
       <c r="P18" s="107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q18" s="107"/>
       <c r="R18" s="107"/>
@@ -2665,7 +2662,7 @@
       <c r="C19" s="59"/>
       <c r="D19" s="85"/>
       <c r="E19" s="59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="58" t="s">
         <v>24</v>
@@ -2675,7 +2672,7 @@
         <v>400</v>
       </c>
       <c r="I19" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J19" s="62"/>
       <c r="K19" s="59"/>
@@ -2688,7 +2685,7 @@
       </c>
       <c r="O19" s="107"/>
       <c r="P19" s="107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="107"/>
       <c r="R19" s="107"/>
@@ -2703,7 +2700,7 @@
       <c r="D20" s="85"/>
       <c r="E20" s="59"/>
       <c r="F20" s="58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" s="86"/>
       <c r="H20" s="58"/>
@@ -2719,7 +2716,7 @@
       </c>
       <c r="O20" s="107"/>
       <c r="P20" s="107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="107"/>
       <c r="R20" s="107"/>
@@ -2734,7 +2731,7 @@
       <c r="D21" s="85"/>
       <c r="E21" s="59"/>
       <c r="F21" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="86"/>
       <c r="H21" s="58"/>
@@ -2750,7 +2747,7 @@
       </c>
       <c r="O21" s="107"/>
       <c r="P21" s="107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q21" s="107"/>
       <c r="R21" s="107"/>
@@ -2765,7 +2762,7 @@
       <c r="D22" s="85"/>
       <c r="E22" s="59"/>
       <c r="F22" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" s="86"/>
       <c r="H22" s="58"/>
@@ -2781,7 +2778,7 @@
       </c>
       <c r="O22" s="107"/>
       <c r="P22" s="107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="107"/>
       <c r="R22" s="107"/>
@@ -2941,7 +2938,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M1" s="56" t="s">
         <v>12</v>
@@ -2965,7 +2962,7 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="58" t="s">
         <v>21</v>
@@ -2975,7 +2972,7 @@
         <v>8498746</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="60" t="s">
         <v>24</v>
@@ -2994,7 +2991,7 @@
       </c>
       <c r="M2" s="59"/>
       <c r="N2" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O2" s="59" t="s">
         <v>23</v>
@@ -3011,7 +3008,7 @@
       <c r="C3" s="63"/>
       <c r="D3" s="64"/>
       <c r="E3" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="65" t="s">
         <v>29</v>
@@ -3032,14 +3029,14 @@
       </c>
       <c r="M3" s="59"/>
       <c r="N3" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O3" s="59" t="s">
         <v>23</v>
       </c>
       <c r="P3" s="59"/>
       <c r="Q3" s="59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R3" s="59" t="s">
         <v>23</v>
@@ -3098,7 +3095,7 @@
       </c>
       <c r="M5" s="59"/>
       <c r="N5" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O5" s="59" t="s">
         <v>32</v>
@@ -3109,10 +3106,10 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="73"/>
       <c r="D6" s="72">
@@ -3123,7 +3120,7 @@
       <c r="G6" s="74"/>
       <c r="H6" s="74"/>
       <c r="I6" s="75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J6" s="70"/>
       <c r="K6" s="59"/>
@@ -3139,23 +3136,23 @@
     </row>
     <row r="7" spans="1:19" ht="45.75">
       <c r="A7" s="76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="73"/>
       <c r="D7" s="77"/>
       <c r="E7" s="78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="74"/>
       <c r="H7" s="78">
         <v>1</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="70"/>
       <c r="K7" s="79">
@@ -3166,17 +3163,17 @@
       </c>
       <c r="M7" s="59"/>
       <c r="N7" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O7" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P7" s="59"/>
       <c r="Q7" s="59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R7" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="45.75">
@@ -3185,17 +3182,17 @@
       <c r="C8" s="73"/>
       <c r="D8" s="77"/>
       <c r="E8" s="80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="74"/>
       <c r="H8" s="60">
         <v>1000</v>
       </c>
       <c r="I8" s="58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8" s="70"/>
       <c r="K8" s="79">
@@ -3206,10 +3203,10 @@
       </c>
       <c r="M8" s="59"/>
       <c r="N8" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O8" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P8" s="59"/>
       <c r="Q8" s="59"/>
@@ -3221,17 +3218,17 @@
       <c r="C9" s="82"/>
       <c r="D9" s="83"/>
       <c r="E9" s="80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="74"/>
       <c r="H9" s="60">
         <v>1000</v>
       </c>
       <c r="I9" s="75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" s="70"/>
       <c r="K9" s="79">
@@ -3242,10 +3239,10 @@
       </c>
       <c r="M9" s="59"/>
       <c r="N9" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O9" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P9" s="59"/>
       <c r="Q9" s="59"/>
@@ -3253,10 +3250,10 @@
     </row>
     <row r="10" spans="1:19" ht="106.5">
       <c r="A10" s="84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="59">
@@ -3269,7 +3266,7 @@
       </c>
       <c r="H10" s="58"/>
       <c r="I10" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" s="62"/>
       <c r="K10" s="59"/>
@@ -3287,10 +3284,10 @@
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
       <c r="E11" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="87">
         <v>0</v>
@@ -3299,7 +3296,7 @@
         <v>23460</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" s="62"/>
       <c r="K11" s="59"/>
@@ -3308,10 +3305,10 @@
       </c>
       <c r="M11" s="59"/>
       <c r="N11" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O11" s="59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P11" s="59"/>
       <c r="Q11" s="59"/>
@@ -3323,10 +3320,10 @@
       <c r="C12" s="59"/>
       <c r="D12" s="85"/>
       <c r="E12" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="86"/>
       <c r="H12" s="91">
@@ -3342,10 +3339,10 @@
       </c>
       <c r="M12" s="59"/>
       <c r="N12" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O12" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P12" s="59"/>
       <c r="Q12" s="59"/>
@@ -3357,7 +3354,7 @@
       <c r="C13" s="59"/>
       <c r="D13" s="85"/>
       <c r="E13" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="92" t="s">
         <v>24</v>
@@ -3376,10 +3373,10 @@
       </c>
       <c r="M13" s="59"/>
       <c r="N13" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O13" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P13" s="59"/>
       <c r="Q13" s="59"/>
@@ -3387,58 +3384,58 @@
     </row>
     <row r="14" spans="1:19" ht="137.25">
       <c r="A14" s="84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="85">
         <v>1780000</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F14" s="93" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="86"/>
       <c r="H14" s="94">
         <v>16929</v>
       </c>
       <c r="I14" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" s="62"/>
       <c r="K14" s="59"/>
       <c r="L14" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M14" s="59"/>
       <c r="N14" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O14" s="59" t="s">
         <v>32</v>
       </c>
       <c r="P14" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="59"/>
       <c r="R14" s="59"/>
     </row>
     <row r="15" spans="1:19" ht="106.5">
       <c r="A15" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
       <c r="D15" s="85"/>
       <c r="E15" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="86"/>
       <c r="H15" s="89">
@@ -3450,17 +3447,17 @@
         <v>0.51</v>
       </c>
       <c r="L15" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M15" s="59"/>
       <c r="N15" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O15" s="59" t="s">
         <v>32</v>
       </c>
       <c r="P15" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="59"/>
       <c r="R15" s="59"/>
@@ -3471,10 +3468,10 @@
       <c r="C16" s="59"/>
       <c r="D16" s="85"/>
       <c r="E16" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="95" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="86"/>
       <c r="H16" s="88">
@@ -3484,17 +3481,17 @@
       <c r="J16" s="62"/>
       <c r="K16" s="59"/>
       <c r="L16" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M16" s="59"/>
       <c r="N16" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O16" s="59" t="s">
         <v>32</v>
       </c>
       <c r="P16" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="59"/>
       <c r="R16" s="59"/>
@@ -3506,7 +3503,7 @@
       <c r="D17" s="85"/>
       <c r="E17" s="59"/>
       <c r="F17" s="95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="87"/>
       <c r="H17" s="88"/>
@@ -3514,17 +3511,17 @@
       <c r="J17" s="62"/>
       <c r="K17" s="59"/>
       <c r="L17" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M17" s="59"/>
       <c r="N17" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O17" s="59" t="s">
         <v>32</v>
       </c>
       <c r="P17" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="59"/>
       <c r="R17" s="59"/>
@@ -3536,7 +3533,7 @@
       <c r="D18" s="85"/>
       <c r="E18" s="59"/>
       <c r="F18" s="96" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="86"/>
       <c r="H18" s="88"/>
@@ -3544,17 +3541,17 @@
       <c r="J18" s="62"/>
       <c r="K18" s="59"/>
       <c r="L18" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M18" s="59"/>
       <c r="N18" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O18" s="59" t="s">
         <v>32</v>
       </c>
       <c r="P18" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q18" s="59"/>
       <c r="R18" s="59"/>
@@ -3562,14 +3559,14 @@
     <row r="19" spans="1:18">
       <c r="A19" s="59"/>
       <c r="B19" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="85">
         <v>1346173</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" s="97" t="s">
         <v>24</v>
@@ -3582,72 +3579,72 @@
       <c r="J19" s="62"/>
       <c r="K19" s="59"/>
       <c r="L19" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M19" s="59"/>
       <c r="N19" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O19" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P19" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="59"/>
       <c r="R19" s="59"/>
     </row>
     <row r="20" spans="1:18" ht="30.75">
       <c r="A20" s="84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="85">
         <v>200000</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20" s="86"/>
       <c r="H20" s="58">
         <v>200</v>
       </c>
       <c r="I20" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J20" s="62"/>
       <c r="K20" s="59"/>
       <c r="L20" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M20" s="59"/>
       <c r="N20" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O20" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P20" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="59"/>
       <c r="R20" s="59"/>
     </row>
     <row r="21" spans="1:18" ht="137.25">
       <c r="A21" s="59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
       <c r="D21" s="85"/>
       <c r="E21" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21" s="58" t="s">
         <v>24</v>
@@ -3657,22 +3654,22 @@
         <v>400</v>
       </c>
       <c r="I21" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J21" s="62"/>
       <c r="K21" s="59"/>
       <c r="L21" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M21" s="59"/>
       <c r="N21" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O21" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P21" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q21" s="59"/>
       <c r="R21" s="59"/>
@@ -3684,7 +3681,7 @@
       <c r="D22" s="85"/>
       <c r="E22" s="59"/>
       <c r="F22" s="58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" s="86"/>
       <c r="H22" s="58"/>
@@ -3692,17 +3689,17 @@
       <c r="J22" s="62"/>
       <c r="K22" s="59"/>
       <c r="L22" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M22" s="59"/>
       <c r="N22" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O22" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P22" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="59"/>
       <c r="R22" s="59"/>
@@ -3714,7 +3711,7 @@
       <c r="D23" s="85"/>
       <c r="E23" s="59"/>
       <c r="F23" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="86"/>
       <c r="H23" s="58"/>
@@ -3722,17 +3719,17 @@
       <c r="J23" s="70"/>
       <c r="K23" s="59"/>
       <c r="L23" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M23" s="59"/>
       <c r="N23" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O23" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P23" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="59"/>
       <c r="R23" s="59"/>
@@ -3744,7 +3741,7 @@
       <c r="D24" s="85"/>
       <c r="E24" s="59"/>
       <c r="F24" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G24" s="86"/>
       <c r="H24" s="58"/>
@@ -3752,17 +3749,17 @@
       <c r="J24" s="70"/>
       <c r="K24" s="59"/>
       <c r="L24" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M24" s="59"/>
       <c r="N24" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O24" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P24" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="59"/>
       <c r="R24" s="59"/>
@@ -3882,12 +3879,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15">
       <c r="A2" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="119" t="s">
         <v>21</v>
@@ -3896,10 +3893,10 @@
         <v>8498746</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="19">
@@ -3918,7 +3915,7 @@
       <c r="C3"/>
       <c r="D3" s="6"/>
       <c r="E3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>29</v>
@@ -3927,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I3" s="29" t="s">
         <v>31</v>
@@ -3944,7 +3941,7 @@
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>36</v>
@@ -3966,19 +3963,19 @@
         <v>38</v>
       </c>
       <c r="H5" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="55" t="s">
         <v>106</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>107</v>
       </c>
       <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:17" ht="15">
       <c r="A6" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="8">
@@ -3989,13 +3986,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:17" ht="45.75">
       <c r="A7" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="120"/>
       <c r="C7" s="9"/>
@@ -4004,14 +4001,14 @@
         <v>32</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="36"/>
     </row>
@@ -4021,17 +4018,17 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8" s="36"/>
     </row>
@@ -4041,17 +4038,17 @@
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" s="36"/>
     </row>
@@ -4061,16 +4058,16 @@
     </row>
     <row r="11" spans="1:17" ht="106.5">
       <c r="A11" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="121" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3">
         <v>6000000</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" s="25">
         <v>0</v>
@@ -4079,20 +4076,20 @@
         <v>7</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="60.75">
       <c r="B12" s="121"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="25">
         <v>0</v>
@@ -4101,17 +4098,17 @@
         <v>23460</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J12" s="37"/>
       <c r="Q12" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="45.75">
       <c r="B13" s="121"/>
       <c r="F13" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G13" s="41">
         <v>0</v>
@@ -4120,29 +4117,29 @@
         <v>21</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="46.5">
       <c r="B14" s="121"/>
       <c r="F14" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J14" s="37"/>
     </row>
     <row r="15" spans="1:17" ht="46.5">
       <c r="B15" s="121"/>
       <c r="E15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="H15" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="J15" s="37"/>
     </row>
@@ -4153,78 +4150,78 @@
     </row>
     <row r="17" spans="1:10" ht="137.25">
       <c r="A17" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="5">
         <v>1780000</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10" ht="106.5">
       <c r="A18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10" ht="76.5">
       <c r="F19" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="38" t="s">
         <v>122</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>123</v>
       </c>
       <c r="J19" s="37"/>
     </row>
     <row r="20" spans="1:10" ht="30.75">
       <c r="F20" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:10" ht="137.25">
       <c r="F21" s="53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10" ht="30.75">
       <c r="B22" s="120" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="5">
         <v>1346173</v>
       </c>
       <c r="F22" s="30"/>
       <c r="H22" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I22" s="28"/>
       <c r="J22" s="37"/>
@@ -4237,10 +4234,10 @@
       <c r="B24" s="120"/>
       <c r="D24"/>
       <c r="E24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" t="s">
         <v>127</v>
-      </c>
-      <c r="F24" t="s">
-        <v>128</v>
       </c>
       <c r="J24" s="37"/>
     </row>
@@ -4248,10 +4245,10 @@
       <c r="B25" s="120"/>
       <c r="D25"/>
       <c r="E25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="J25" s="37"/>
     </row>
@@ -4259,10 +4256,10 @@
       <c r="B26" s="120"/>
       <c r="D26"/>
       <c r="E26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="J26" s="37"/>
     </row>
@@ -4270,10 +4267,10 @@
       <c r="B27" s="120"/>
       <c r="D27"/>
       <c r="E27" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J27" s="37"/>
     </row>
@@ -4283,58 +4280,58 @@
     </row>
     <row r="29" spans="1:10" ht="45.75">
       <c r="A29" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="5">
         <v>200000</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="I29" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J29" s="37"/>
     </row>
     <row r="30" spans="1:10" ht="137.25">
       <c r="A30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="J30" s="37"/>
     </row>
     <row r="31" spans="1:10" ht="137.25">
       <c r="F31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J31" s="37"/>
     </row>
     <row r="32" spans="1:10" ht="45.75">
       <c r="F32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J32" s="36"/>
     </row>
     <row r="33" spans="4:10" ht="76.5">
       <c r="F33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J33" s="36"/>
     </row>
@@ -4442,7 +4439,7 @@
     <row r="1" spans="1:5" ht="14.45"/>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4456,389 +4453,389 @@
     </row>
     <row r="5" spans="1:5" ht="32.25">
       <c r="A5" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="C5" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="D5" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="E5" s="44" t="s">
         <v>142</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.75">
       <c r="A6" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="C6" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="D6" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="E6" s="48" t="s">
         <v>147</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30.75">
       <c r="A7" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="46" t="s">
-        <v>145</v>
-      </c>
       <c r="C7" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="E7" s="48" t="s">
         <v>150</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>145</v>
-      </c>
       <c r="C8" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="E8" s="48" t="s">
         <v>153</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="C9" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="D9" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="E9" s="48" t="s">
         <v>158</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>156</v>
-      </c>
       <c r="C10" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="E10" s="48" t="s">
         <v>161</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>156</v>
-      </c>
       <c r="C11" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="E11" s="48" t="s">
         <v>164</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="47" t="s">
+      <c r="D12" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="E12" s="48" t="s">
         <v>168</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="E13" s="48" t="s">
         <v>171</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="E14" s="48" t="s">
         <v>174</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="C15" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="D15" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="E15" s="48" t="s">
         <v>179</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="47" t="s">
-        <v>177</v>
-      </c>
       <c r="C16" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="E16" s="48" t="s">
         <v>182</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="B17" s="47" t="s">
-        <v>177</v>
-      </c>
       <c r="C17" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="E17" s="48" t="s">
         <v>185</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="B18" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="47" t="s">
+      <c r="D18" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="48" t="s">
-        <v>189</v>
-      </c>
       <c r="E18" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="E19" s="48" t="s">
         <v>191</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C20" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="E20" s="48" t="s">
         <v>194</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="C21" s="47" t="s">
+      <c r="D21" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="E21" s="48" t="s">
         <v>198</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="E22" s="48" t="s">
         <v>201</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C23" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="E23" s="48" t="s">
         <v>204</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C24" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="E24" s="48" t="s">
         <v>207</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="B25" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" s="47" t="s">
+      <c r="D25" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="E25" s="48" t="s">
         <v>211</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C26" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="E26" s="48" t="s">
         <v>214</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="122" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="123"/>
       <c r="C27" s="124"/>
       <c r="D27" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27" s="52" t="s">
         <v>217</v>
-      </c>
-      <c r="E27" s="52" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4875,15 +4872,15 @@
         <v>32</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="125" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="109" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.75">
@@ -4891,135 +4888,135 @@
         <v>23</v>
       </c>
       <c r="B4" s="109" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.75">
       <c r="A5" s="125" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="109" t="s">
         <v>222</v>
-      </c>
-      <c r="B5" s="109" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="91.5">
       <c r="A6" s="125" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45.75">
       <c r="A7" s="125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="109" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45.75">
       <c r="A8" s="125" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="109" t="s">
         <v>226</v>
-      </c>
-      <c r="B8" s="109" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45.75">
       <c r="A9" s="125" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="109" t="s">
         <v>228</v>
-      </c>
-      <c r="B9" s="109" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.75">
       <c r="A10" s="125" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="126" t="s">
         <v>230</v>
-      </c>
-      <c r="B10" s="126" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30.75">
       <c r="A11" s="125" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="126" t="s">
         <v>232</v>
-      </c>
-      <c r="B11" s="126" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75">
       <c r="A12" s="125" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="109" t="s">
         <v>234</v>
-      </c>
-      <c r="B12" s="109" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30.75">
       <c r="A13" s="125" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="126" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="125" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="126" t="s">
         <v>237</v>
-      </c>
-      <c r="B14" s="126" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30.75">
       <c r="A15" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="126" t="s">
         <v>239</v>
-      </c>
-      <c r="B15" s="126" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30.75">
       <c r="A16" s="125" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="126" t="s">
         <v>241</v>
-      </c>
-      <c r="B16" s="126" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30.75">
       <c r="A17" s="125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="109" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75">
       <c r="A18" s="125" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="126" t="s">
         <v>244</v>
-      </c>
-      <c r="B18" s="126" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="76.5">
       <c r="A19" s="125" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19" s="126" t="s">
         <v>246</v>
-      </c>
-      <c r="B19" s="126" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30.75">
       <c r="A20" s="125" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="126" t="s">
         <v>248</v>
-      </c>
-      <c r="B20" s="126" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45.75">
@@ -5027,15 +5024,15 @@
         <v>19</v>
       </c>
       <c r="B21" s="127" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30.75">
       <c r="A22" s="125" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="126" t="s">
         <v>251</v>
-      </c>
-      <c r="B22" s="126" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -5044,15 +5041,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -5307,6 +5295,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5356,11 +5353,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A9BB7FF-E22B-4D52-A2B4-6495F131E217}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A9BB7FF-E22B-4D52-A2B4-6495F131E217}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
